--- a/2. 데이터 정의자료/테이블명세서.xlsx
+++ b/2. 데이터 정의자료/테이블명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc1af692e4963903/DataDiva_Datebase/2. 데이터 정의자료/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop_GripRoad\DataDiva\DataDiva_Datebase\2. 데이터 정의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="825" documentId="13_ncr:1_{1CC0874E-930C-4E25-B467-DF57CA39FD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E11E2F-284D-4A83-956A-DC59C82D65CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975BC8DE-72BE-4EEB-96C8-291EA5A12C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="27360" windowWidth="29040" windowHeight="15720" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
+    <workbookView xWindow="3120" yWindow="2889" windowWidth="18823" windowHeight="10414" activeTab="1" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
   </bookViews>
   <sheets>
     <sheet name="PG_TB (기본정보)" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="263">
   <si>
     <t>TableSeq</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -465,14 +465,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DataDiva</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDiva</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기타코드 대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -833,239 +825,263 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>서비스 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전 내역 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_ChrHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구서 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChrAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChrNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_Refund</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 신청 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행현황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 신청일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChrDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 코드번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swift 코드 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kimjeje.tistory.com/1110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Bank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 거절 사유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 계좌 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundReason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%B9%B4%EB%93%9C_%EB%B2%88%ED%98%B8%EC%9D%98_%EA%B5%AC%EC%84%B1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드정보 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사별 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwiftCodeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMR_ReportLike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 Like 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMR_ReportComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 댓글 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentSerl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 생성 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>서비스 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전 내역 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP_ChrHistory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청구서 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChrAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChrNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP_Refund</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 신청 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행현황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 신청일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChrDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 코드번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Swift 코드 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kimjeje.tistory.com/1110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Bank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundStatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankNumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 거절 사유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 계좌 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundReason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%B9%B4%EB%93%9C_%EB%B2%88%ED%98%B8%EC%9D%98_%EA%B5%AC%EC%84%B1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드정보 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드사별 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwiftCodeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMR_ReportLike</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 Like 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMR_ReportComment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 댓글 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommentSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommentSerl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대댓글 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 생성 일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
+    <t>Remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 내역 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rpt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1415,10 +1431,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1738,21 +1750,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAC3ED0-D041-41E3-85C7-BA9CF31CFF49}">
   <dimension ref="A1:H311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E302" sqref="E302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1769,10 +1781,10 @@
         <v>34</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1784,7 +1796,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1824,7 +1836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1864,7 +1876,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1872,19 +1884,19 @@
         <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="D7" s="20">
         <v>8</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>31</v>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1892,7 +1904,7 @@
         <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="D8" s="20">
         <v>500</v>
@@ -1904,7 +1916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2008,7 +2020,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2018,7 +2030,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2028,7 +2040,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2038,7 +2050,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2048,7 +2060,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2058,7 +2070,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2068,7 +2080,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2078,7 +2090,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2088,7 +2100,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2098,8 +2110,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -2116,10 +2128,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -2131,7 +2143,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2191,7 +2203,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -2229,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -2247,7 +2259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -2287,7 +2299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -2297,7 +2309,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -2307,7 +2319,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -2317,7 +2329,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -2327,7 +2339,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -2337,7 +2349,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -2347,7 +2359,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -2357,7 +2369,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -2367,7 +2379,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -2377,7 +2389,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -2387,7 +2399,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -2397,7 +2409,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -2407,7 +2419,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -2417,8 +2429,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -2435,10 +2447,10 @@
         <v>34</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -2450,7 +2462,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -2490,7 +2502,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -2578,7 +2590,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -2588,7 +2600,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -2598,7 +2610,7 @@
       <c r="E59" s="15"/>
       <c r="F59" s="26"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -2608,7 +2620,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -2618,7 +2630,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -2628,7 +2640,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -2638,7 +2650,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -2648,7 +2660,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -2658,7 +2670,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -2668,7 +2680,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -2678,7 +2690,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -2688,7 +2700,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -2698,7 +2710,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -2708,7 +2720,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -2718,11 +2730,11 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="F72" s="30"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -2733,28 +2745,28 @@
         <v>1</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2774,7 +2786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -2794,12 +2806,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>89</v>
@@ -2809,10 +2821,10 @@
         <v>10</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -2830,12 +2842,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>11</v>
@@ -2850,7 +2862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -2860,7 +2872,7 @@
       <c r="E80" s="20"/>
       <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -2870,7 +2882,7 @@
       <c r="E81" s="20"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -2880,7 +2892,7 @@
       <c r="E82" s="20"/>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -2890,7 +2902,7 @@
       <c r="E83" s="15"/>
       <c r="F83" s="26"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -2900,7 +2912,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -2910,7 +2922,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -2920,7 +2932,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -2930,7 +2942,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -2940,7 +2952,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -2950,7 +2962,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -2960,7 +2972,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -2970,7 +2982,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -2980,7 +2992,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -2990,7 +3002,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -3000,7 +3012,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -3010,8 +3022,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -3028,10 +3040,10 @@
         <v>34</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3055,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -3083,7 +3095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -3101,7 +3113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -3151,7 +3163,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="22"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -3161,7 +3173,7 @@
       <c r="E105" s="20"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -3171,7 +3183,7 @@
       <c r="E106" s="20"/>
       <c r="F106" s="22"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -3181,7 +3193,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="26"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -3191,7 +3203,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -3201,7 +3213,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -3211,7 +3223,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -3221,7 +3233,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -3231,7 +3243,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -3241,7 +3253,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -3251,7 +3263,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -3261,7 +3273,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -3271,7 +3283,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -3281,7 +3293,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -3291,7 +3303,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -3301,8 +3313,8 @@
       <c r="E119" s="28"/>
       <c r="F119" s="27"/>
     </row>
-    <row r="120" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>0</v>
       </c>
@@ -3319,10 +3331,10 @@
         <v>34</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>2</v>
       </c>
@@ -3334,7 +3346,7 @@
       <c r="E122" s="36"/>
       <c r="F122" s="37"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>3</v>
       </c>
@@ -3354,7 +3366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -3369,10 +3381,10 @@
         <v>10</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3389,10 +3401,10 @@
         <v>10</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>3</v>
       </c>
@@ -3409,10 +3421,10 @@
         <v>10</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -3429,10 +3441,10 @@
         <v>10</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>5</v>
       </c>
@@ -3449,10 +3461,10 @@
         <v>10</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>6</v>
       </c>
@@ -3469,10 +3481,10 @@
         <v>10</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>7</v>
       </c>
@@ -3492,7 +3504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -3502,7 +3514,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="24"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>9</v>
       </c>
@@ -3511,7 +3523,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="24"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>10</v>
       </c>
@@ -3521,7 +3533,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="24"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>11</v>
       </c>
@@ -3531,7 +3543,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="24"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>12</v>
       </c>
@@ -3541,7 +3553,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="24"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>13</v>
       </c>
@@ -3551,7 +3563,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="24"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>14</v>
       </c>
@@ -3561,7 +3573,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="24"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>15</v>
       </c>
@@ -3571,7 +3583,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="24"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>16</v>
       </c>
@@ -3581,7 +3593,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="24"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>17</v>
       </c>
@@ -3591,7 +3603,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="24"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>18</v>
       </c>
@@ -3601,7 +3613,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="24"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>19</v>
       </c>
@@ -3611,7 +3623,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="24"/>
     </row>
-    <row r="143" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>20</v>
       </c>
@@ -3621,8 +3633,8 @@
       <c r="E143" s="6"/>
       <c r="F143" s="25"/>
     </row>
-    <row r="144" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>0</v>
       </c>
@@ -3639,22 +3651,22 @@
         <v>34</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B146" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C146" s="36"/>
       <c r="D146" s="36"/>
       <c r="E146" s="36"/>
       <c r="F146" s="37"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -3692,7 +3704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -3712,7 +3724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -3732,7 +3744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>4</v>
       </c>
@@ -3742,7 +3754,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="24"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -3752,7 +3764,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="24"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>6</v>
       </c>
@@ -3762,7 +3774,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="24"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>7</v>
       </c>
@@ -3772,7 +3784,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="24"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -3782,7 +3794,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="24"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>9</v>
       </c>
@@ -3792,7 +3804,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="24"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>10</v>
       </c>
@@ -3802,7 +3814,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="24"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>11</v>
       </c>
@@ -3812,7 +3824,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="24"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>12</v>
       </c>
@@ -3822,7 +3834,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="24"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>13</v>
       </c>
@@ -3832,7 +3844,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="24"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>14</v>
       </c>
@@ -3842,7 +3854,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="24"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>15</v>
       </c>
@@ -3852,7 +3864,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="24"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>16</v>
       </c>
@@ -3862,7 +3874,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="24"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>17</v>
       </c>
@@ -3872,7 +3884,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="24"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>18</v>
       </c>
@@ -3882,7 +3894,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="24"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>19</v>
       </c>
@@ -3892,7 +3904,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="24"/>
     </row>
-    <row r="167" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>20</v>
       </c>
@@ -3902,12 +3914,12 @@
       <c r="E167" s="6"/>
       <c r="F167" s="25"/>
     </row>
-    <row r="168" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7"/>
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>0</v>
       </c>
@@ -3924,22 +3936,22 @@
         <v>34</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B170" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C170" s="36"/>
       <c r="D170" s="36"/>
       <c r="E170" s="36"/>
       <c r="F170" s="37"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>3</v>
       </c>
@@ -3959,7 +3971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -3995,7 +4007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>3</v>
       </c>
@@ -4015,7 +4027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>4</v>
       </c>
@@ -4035,7 +4047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -4045,7 +4057,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="24"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>6</v>
       </c>
@@ -4055,7 +4067,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="24"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>7</v>
       </c>
@@ -4065,7 +4077,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="24"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>8</v>
       </c>
@@ -4075,7 +4087,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="24"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>9</v>
       </c>
@@ -4085,7 +4097,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="24"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>10</v>
       </c>
@@ -4095,7 +4107,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="24"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>11</v>
       </c>
@@ -4105,7 +4117,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="24"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>12</v>
       </c>
@@ -4115,7 +4127,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="24"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>13</v>
       </c>
@@ -4125,7 +4137,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="24"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>14</v>
       </c>
@@ -4135,7 +4147,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="24"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>15</v>
       </c>
@@ -4145,7 +4157,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="24"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>16</v>
       </c>
@@ -4155,7 +4167,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="24"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>17</v>
       </c>
@@ -4165,7 +4177,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="24"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>18</v>
       </c>
@@ -4175,7 +4187,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="24"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>19</v>
       </c>
@@ -4185,7 +4197,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="24"/>
     </row>
-    <row r="191" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>20</v>
       </c>
@@ -4195,8 +4207,8 @@
       <c r="E191" s="6"/>
       <c r="F191" s="25"/>
     </row>
-    <row r="192" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -4213,10 +4225,10 @@
         <v>34</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>2</v>
       </c>
@@ -4228,7 +4240,7 @@
       <c r="E194" s="36"/>
       <c r="F194" s="37"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -4263,10 +4275,10 @@
         <v>31</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4286,7 +4298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>3</v>
       </c>
@@ -4306,7 +4318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>4</v>
       </c>
@@ -4326,7 +4338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>5</v>
       </c>
@@ -4336,7 +4348,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="24"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>6</v>
       </c>
@@ -4346,7 +4358,7 @@
       <c r="E201" s="3"/>
       <c r="F201" s="24"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>7</v>
       </c>
@@ -4356,7 +4368,7 @@
       <c r="E202" s="3"/>
       <c r="F202" s="24"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>8</v>
       </c>
@@ -4366,7 +4378,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="24"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>9</v>
       </c>
@@ -4376,7 +4388,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="24"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>10</v>
       </c>
@@ -4386,7 +4398,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="24"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>11</v>
       </c>
@@ -4396,7 +4408,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="24"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>12</v>
       </c>
@@ -4406,7 +4418,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="24"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>13</v>
       </c>
@@ -4416,7 +4428,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="24"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>14</v>
       </c>
@@ -4426,7 +4438,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="24"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>15</v>
       </c>
@@ -4436,7 +4448,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="24"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>16</v>
       </c>
@@ -4446,7 +4458,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="24"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>17</v>
       </c>
@@ -4456,7 +4468,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="24"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>18</v>
       </c>
@@ -4466,7 +4478,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="24"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>19</v>
       </c>
@@ -4476,7 +4488,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="24"/>
     </row>
-    <row r="215" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>20</v>
       </c>
@@ -4486,8 +4498,8 @@
       <c r="E215" s="6"/>
       <c r="F215" s="25"/>
     </row>
-    <row r="216" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>0</v>
       </c>
@@ -4504,10 +4516,10 @@
         <v>34</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
         <v>2</v>
       </c>
@@ -4519,7 +4531,7 @@
       <c r="E218" s="36"/>
       <c r="F218" s="37"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
         <v>3</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -4575,7 +4587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>3</v>
       </c>
@@ -4595,7 +4607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>4</v>
       </c>
@@ -4615,7 +4627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>5</v>
       </c>
@@ -4625,7 +4637,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="21"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>6</v>
       </c>
@@ -4635,7 +4647,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="21"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -4645,7 +4657,7 @@
       <c r="E226" s="3"/>
       <c r="F226" s="24"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>8</v>
       </c>
@@ -4655,7 +4667,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="24"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>9</v>
       </c>
@@ -4665,7 +4677,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="24"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>10</v>
       </c>
@@ -4675,7 +4687,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="24"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>11</v>
       </c>
@@ -4685,7 +4697,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="24"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>12</v>
       </c>
@@ -4695,7 +4707,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="24"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>13</v>
       </c>
@@ -4705,7 +4717,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="24"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>14</v>
       </c>
@@ -4715,7 +4727,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="24"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>15</v>
       </c>
@@ -4725,7 +4737,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="24"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>16</v>
       </c>
@@ -4735,7 +4747,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="24"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>17</v>
       </c>
@@ -4745,7 +4757,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="24"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>18</v>
       </c>
@@ -4755,7 +4767,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="24"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>19</v>
       </c>
@@ -4765,7 +4777,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="24"/>
     </row>
-    <row r="239" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>20</v>
       </c>
@@ -4775,8 +4787,8 @@
       <c r="E239" s="6"/>
       <c r="F239" s="25"/>
     </row>
-    <row r="240" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -4793,10 +4805,10 @@
         <v>34</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
         <v>2</v>
       </c>
@@ -4808,7 +4820,7 @@
       <c r="E242" s="36"/>
       <c r="F242" s="37"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="11" t="s">
         <v>3</v>
       </c>
@@ -4828,7 +4840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>1</v>
       </c>
@@ -4846,15 +4858,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="D245" s="20">
         <v>150</v>
@@ -4863,10 +4875,10 @@
         <v>10</v>
       </c>
       <c r="F245" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>3</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>4</v>
       </c>
@@ -4904,7 +4916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>5</v>
       </c>
@@ -4914,7 +4926,7 @@
       <c r="E248" s="3"/>
       <c r="F248" s="21"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>6</v>
       </c>
@@ -4924,7 +4936,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="21"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>7</v>
       </c>
@@ -4934,7 +4946,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="24"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -4944,7 +4956,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="24"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>9</v>
       </c>
@@ -4954,7 +4966,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="24"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>10</v>
       </c>
@@ -4964,7 +4976,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="24"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>11</v>
       </c>
@@ -4974,7 +4986,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="24"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>12</v>
       </c>
@@ -4984,7 +4996,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="24"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>13</v>
       </c>
@@ -4994,7 +5006,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="24"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>14</v>
       </c>
@@ -5004,7 +5016,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="24"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>15</v>
       </c>
@@ -5014,7 +5026,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="24"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>16</v>
       </c>
@@ -5024,7 +5036,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="24"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>17</v>
       </c>
@@ -5034,7 +5046,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="24"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>18</v>
       </c>
@@ -5044,7 +5056,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="24"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>19</v>
       </c>
@@ -5054,7 +5066,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="24"/>
     </row>
-    <row r="263" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>20</v>
       </c>
@@ -5064,8 +5076,8 @@
       <c r="E263" s="6"/>
       <c r="F263" s="25"/>
     </row>
-    <row r="264" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>0</v>
       </c>
@@ -5076,28 +5088,28 @@
         <v>1</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B266" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C266" s="36"/>
       <c r="D266" s="36"/>
       <c r="E266" s="36"/>
       <c r="F266" s="37"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
         <v>3</v>
       </c>
@@ -5117,15 +5129,15 @@
         <v>8</v>
       </c>
       <c r="H267" s="34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>1</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -5135,19 +5147,19 @@
         <v>10</v>
       </c>
       <c r="F268" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H268" s="29"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>2</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="D269" s="20">
         <v>100</v>
@@ -5156,16 +5168,16 @@
         <v>10</v>
       </c>
       <c r="F269" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H269" s="29"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>3</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>9</v>
@@ -5175,15 +5187,15 @@
         <v>10</v>
       </c>
       <c r="F270" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>4</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>11</v>
@@ -5195,10 +5207,10 @@
         <v>10</v>
       </c>
       <c r="F271" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>5</v>
       </c>
@@ -5218,7 +5230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>6</v>
       </c>
@@ -5228,7 +5240,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="21"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>7</v>
       </c>
@@ -5238,7 +5250,7 @@
       <c r="E274" s="3"/>
       <c r="F274" s="24"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>8</v>
       </c>
@@ -5248,7 +5260,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="24"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>9</v>
       </c>
@@ -5258,7 +5270,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="24"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>10</v>
       </c>
@@ -5268,7 +5280,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="24"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>11</v>
       </c>
@@ -5278,7 +5290,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="24"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>12</v>
       </c>
@@ -5288,7 +5300,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="24"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>13</v>
       </c>
@@ -5298,7 +5310,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="24"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>14</v>
       </c>
@@ -5308,7 +5320,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="24"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>15</v>
       </c>
@@ -5318,7 +5330,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="24"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>16</v>
       </c>
@@ -5328,7 +5340,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="24"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>17</v>
       </c>
@@ -5338,7 +5350,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="24"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>18</v>
       </c>
@@ -5348,7 +5360,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="24"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>19</v>
       </c>
@@ -5358,7 +5370,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="24"/>
     </row>
-    <row r="287" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
         <v>20</v>
       </c>
@@ -5368,8 +5380,8 @@
       <c r="E287" s="6"/>
       <c r="F287" s="25"/>
     </row>
-    <row r="288" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
         <v>0</v>
       </c>
@@ -5380,28 +5392,28 @@
         <v>1</v>
       </c>
       <c r="D289" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B290" s="36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C290" s="36"/>
       <c r="D290" s="36"/>
       <c r="E290" s="36"/>
       <c r="F290" s="37"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
         <v>3</v>
       </c>
@@ -5421,15 +5433,15 @@
         <v>8</v>
       </c>
       <c r="H291" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>1</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -5439,35 +5451,35 @@
         <v>10</v>
       </c>
       <c r="F292" s="26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>2</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D293" s="3">
+      <c r="D293" s="20">
         <v>100</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F293" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>3</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>9</v>
@@ -5477,10 +5489,10 @@
         <v>10</v>
       </c>
       <c r="F294" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>4</v>
       </c>
@@ -5500,7 +5512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>5</v>
       </c>
@@ -5510,7 +5522,7 @@
       <c r="E296" s="3"/>
       <c r="F296" s="21"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>6</v>
       </c>
@@ -5520,7 +5532,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="21"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>7</v>
       </c>
@@ -5530,7 +5542,7 @@
       <c r="E298" s="3"/>
       <c r="F298" s="24"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>8</v>
       </c>
@@ -5540,7 +5552,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="24"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>9</v>
       </c>
@@ -5550,7 +5562,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="24"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>10</v>
       </c>
@@ -5560,7 +5572,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="24"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>11</v>
       </c>
@@ -5570,7 +5582,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="24"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>12</v>
       </c>
@@ -5580,7 +5592,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="24"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>13</v>
       </c>
@@ -5590,7 +5602,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="24"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>14</v>
       </c>
@@ -5600,7 +5612,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="24"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>15</v>
       </c>
@@ -5610,7 +5622,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="24"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>16</v>
       </c>
@@ -5620,7 +5632,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="24"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>17</v>
       </c>
@@ -5630,7 +5642,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="24"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>18</v>
       </c>
@@ -5640,7 +5652,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="24"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>19</v>
       </c>
@@ -5650,7 +5662,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="24"/>
     </row>
-    <row r="311" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="5">
         <v>20</v>
       </c>
@@ -5689,21 +5701,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B458845-507D-4ED5-8FA8-1C5AB7E3FCB0}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5714,28 +5726,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -5755,7 +5767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5775,12 +5787,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5790,15 +5802,15 @@
         <v>10</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>44</v>
@@ -5810,33 +5822,33 @@
         <v>10</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -5846,15 +5858,15 @@
         <v>13</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -5864,10 +5876,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5887,7 +5899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5897,7 +5909,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5907,7 +5919,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5917,7 +5929,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5927,7 +5939,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5937,7 +5949,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5947,7 +5959,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -5957,7 +5969,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5967,7 +5979,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5977,7 +5989,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -5987,7 +5999,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -5997,7 +6009,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -6007,7 +6019,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -6017,8 +6029,8 @@
       <c r="E23" s="32"/>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -6029,28 +6041,28 @@
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -6070,7 +6082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6090,12 +6102,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -6105,18 +6117,18 @@
         <v>31</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D30" s="20">
         <v>1</v>
@@ -6125,15 +6137,15 @@
         <v>31</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>18</v>
@@ -6145,15 +6157,15 @@
         <v>31</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>44</v>
@@ -6165,15 +6177,15 @@
         <v>31</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>44</v>
@@ -6185,15 +6197,15 @@
         <v>31</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>44</v>
@@ -6205,15 +6217,15 @@
         <v>31</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -6223,15 +6235,15 @@
         <v>31</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>44</v>
@@ -6243,15 +6255,15 @@
         <v>31</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>18</v>
@@ -6263,18 +6275,18 @@
         <v>31</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D38" s="20">
         <v>1</v>
@@ -6283,10 +6295,10 @@
         <v>31</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -6306,7 +6318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -6316,7 +6328,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -6326,7 +6338,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -6336,7 +6348,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -6346,7 +6358,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -6356,7 +6368,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -6366,7 +6378,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -6376,7 +6388,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -6386,8 +6398,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -6398,28 +6410,28 @@
         <v>1</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -6439,7 +6451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -6459,12 +6471,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
@@ -6476,15 +6488,15 @@
         <v>31</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
@@ -6494,33 +6506,33 @@
         <v>31</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>89</v>
@@ -6530,10 +6542,10 @@
         <v>10</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -6553,7 +6565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -6563,7 +6575,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -6573,7 +6585,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -6583,7 +6595,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -6593,7 +6605,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -6603,7 +6615,7 @@
       <c r="E62" s="20"/>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -6613,7 +6625,7 @@
       <c r="E63" s="20"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -6623,7 +6635,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -6633,7 +6645,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -6643,7 +6655,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -6653,7 +6665,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -6663,7 +6675,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -6673,7 +6685,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -6683,7 +6695,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -6693,8 +6705,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -6705,28 +6717,28 @@
         <v>1</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -6746,7 +6758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -6766,12 +6778,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
@@ -6783,15 +6795,15 @@
         <v>31</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>89</v>
@@ -6801,33 +6813,33 @@
         <v>10</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>9</v>
@@ -6837,51 +6849,51 @@
         <v>10</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>18</v>
@@ -6893,10 +6905,10 @@
         <v>10</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -6916,7 +6928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -6926,7 +6938,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -6936,7 +6948,7 @@
       <c r="E86" s="20"/>
       <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -6946,7 +6958,7 @@
       <c r="E87" s="20"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -6956,7 +6968,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -6966,7 +6978,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -6976,7 +6988,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -6986,7 +6998,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -6996,7 +7008,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -7006,7 +7018,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -7016,7 +7028,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -7043,20 +7055,20 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7067,28 +7079,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -7108,7 +7120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7128,30 +7140,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -7163,33 +7175,33 @@
         <v>31</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -7201,18 +7213,18 @@
         <v>31</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
@@ -7221,15 +7233,15 @@
         <v>31</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -7241,15 +7253,15 @@
         <v>13</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
@@ -7261,10 +7273,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -7284,7 +7296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -7294,7 +7306,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7304,7 +7316,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7314,7 +7326,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7324,7 +7336,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7334,7 +7346,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7344,7 +7356,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7354,7 +7366,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7364,7 +7376,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7374,7 +7386,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7384,7 +7396,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -7394,8 +7406,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -7406,28 +7418,28 @@
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -7447,7 +7459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -7467,43 +7479,43 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -7523,7 +7535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -7533,7 +7545,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -7543,7 +7555,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -7553,7 +7565,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -7563,7 +7575,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -7573,7 +7585,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -7583,7 +7595,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -7593,7 +7605,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -7603,7 +7615,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -7613,7 +7625,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -7623,7 +7635,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -7633,7 +7645,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -7643,7 +7655,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -7653,7 +7665,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -7663,7 +7675,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -7673,7 +7685,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -7683,8 +7695,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -7695,28 +7707,28 @@
         <v>1</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -7736,7 +7748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -7756,43 +7768,43 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -7812,7 +7824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -7822,7 +7834,7 @@
       <c r="E56" s="20"/>
       <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -7832,7 +7844,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -7842,7 +7854,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -7852,7 +7864,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -7862,7 +7874,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -7872,7 +7884,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -7882,7 +7894,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -7892,7 +7904,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -7902,7 +7914,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -7912,7 +7924,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -7922,7 +7934,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -7932,7 +7944,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -7942,7 +7954,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -7952,7 +7964,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -7962,7 +7974,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -7972,8 +7984,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -7984,28 +7996,28 @@
         <v>1</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -8025,7 +8037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -8045,48 +8057,48 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>18</v>
@@ -8098,28 +8110,28 @@
         <v>31</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -8139,7 +8151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -8149,7 +8161,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -8159,7 +8171,7 @@
       <c r="E83" s="20"/>
       <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -8169,7 +8181,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -8179,7 +8191,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -8189,7 +8201,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -8199,7 +8211,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -8209,7 +8221,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -8219,7 +8231,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -8229,7 +8241,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -8239,7 +8251,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -8249,7 +8261,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -8259,7 +8271,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -8269,7 +8281,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -8279,8 +8291,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -8291,28 +8303,28 @@
         <v>1</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -8332,7 +8344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -8352,48 +8364,48 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>4</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>18</v>
@@ -8405,15 +8417,15 @@
         <v>31</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>5</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>11</v>
@@ -8425,15 +8437,15 @@
         <v>31</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>18</v>
@@ -8445,10 +8457,10 @@
         <v>31</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -8468,7 +8480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -8478,7 +8490,7 @@
       <c r="E107" s="20"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -8488,7 +8500,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -8498,7 +8510,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -8508,7 +8520,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -8518,7 +8530,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -8528,7 +8540,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -8538,7 +8550,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -8548,7 +8560,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -8558,7 +8570,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -8568,7 +8580,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -8578,7 +8590,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -8588,7 +8600,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -8615,21 +8627,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234D65DB-395B-44AB-B33F-D7461DA58313}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8640,24 +8652,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -8677,12 +8689,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -8692,15 +8704,15 @@
         <v>31</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -8710,15 +8722,15 @@
         <v>31</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -8728,10 +8740,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8739,7 +8751,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
@@ -8749,43 +8761,43 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -8795,7 +8807,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8805,7 +8817,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -8815,7 +8827,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8825,7 +8837,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -8835,7 +8847,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -8845,7 +8857,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -8855,7 +8867,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -8865,7 +8877,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -8875,7 +8887,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -8885,7 +8897,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8895,7 +8907,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8905,7 +8917,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8915,7 +8927,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -8925,8 +8937,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -8937,24 +8949,24 @@
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -8974,12 +8986,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -8989,10 +9001,10 @@
         <v>31</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -9000,7 +9012,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18" t="s">
@@ -9010,7 +9022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -9020,7 +9032,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -9030,7 +9042,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -9040,7 +9052,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -9050,7 +9062,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -9060,7 +9072,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -9070,7 +9082,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -9080,7 +9092,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -9090,7 +9102,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -9100,7 +9112,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -9110,7 +9122,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -9120,7 +9132,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -9130,7 +9142,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -9140,7 +9152,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -9150,7 +9162,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -9160,7 +9172,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -9170,7 +9182,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -9180,7 +9192,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>

--- a/2. 데이터 정의자료/테이블명세서.xlsx
+++ b/2. 데이터 정의자료/테이블명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop_GripRoad\DataDiva\DataDiva_Datebase\2. 데이터 정의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975BC8DE-72BE-4EEB-96C8-291EA5A12C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A50EE8B-78B1-4856-A4DF-F7976DDCF381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2889" windowWidth="18823" windowHeight="10414" activeTab="1" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
+    <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="21120" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
   </bookViews>
   <sheets>
     <sheet name="PG_TB (기본정보)" sheetId="4" r:id="rId1"/>
@@ -1750,21 +1750,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAC3ED0-D041-41E3-85C7-BA9CF31CFF49}">
   <dimension ref="A1:H311"/>
   <sheetViews>
-    <sheetView topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E302" sqref="E302"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="30.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="25.640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2110,8 +2110,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -2419,7 +2419,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -2429,8 +2429,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="E59" s="15"/>
       <c r="F59" s="26"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -2730,11 +2730,11 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A72" s="7"/>
       <c r="F72" s="30"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="E80" s="20"/>
       <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="E81" s="20"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="E82" s="20"/>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="E83" s="15"/>
       <c r="F83" s="26"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -3022,8 +3022,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="22"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="E105" s="20"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="E106" s="20"/>
       <c r="F106" s="22"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="26"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -3313,8 +3313,8 @@
       <c r="E119" s="28"/>
       <c r="F119" s="27"/>
     </row>
-    <row r="120" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
         <v>2</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="E122" s="36"/>
       <c r="F122" s="37"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="11" t="s">
         <v>3</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>3</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>5</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>6</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>7</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="24"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>9</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="24"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>10</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="24"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>11</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="24"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>12</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="24"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>13</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="24"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>14</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="24"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>15</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="24"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>16</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="24"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>17</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="24"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>18</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="24"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>19</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="24"/>
     </row>
-    <row r="143" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A143" s="5">
         <v>20</v>
       </c>
@@ -3633,8 +3633,8 @@
       <c r="E143" s="6"/>
       <c r="F143" s="25"/>
     </row>
-    <row r="144" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8" t="s">
         <v>0</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
         <v>2</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="E146" s="36"/>
       <c r="F146" s="37"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="11" t="s">
         <v>3</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>4</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="24"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="24"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>6</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="24"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>7</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="24"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="24"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>9</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="24"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>10</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="24"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>11</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="24"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>12</v>
       </c>
@@ -3834,7 +3834,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="24"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>13</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="24"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>14</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="24"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>15</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="24"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>16</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="24"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>17</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="24"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>18</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="24"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>19</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="24"/>
     </row>
-    <row r="167" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A167" s="5">
         <v>20</v>
       </c>
@@ -3914,12 +3914,12 @@
       <c r="E167" s="6"/>
       <c r="F167" s="25"/>
     </row>
-    <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A168" s="7"/>
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="10" t="s">
         <v>2</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="E170" s="36"/>
       <c r="F170" s="37"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="11" t="s">
         <v>3</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>3</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>4</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="24"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>6</v>
       </c>
@@ -4067,7 +4067,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="24"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>7</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="24"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>8</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="24"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>9</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="24"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>10</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="24"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>11</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="24"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>12</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="24"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>13</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="24"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>14</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="24"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>15</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="24"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>16</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="24"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>17</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="24"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>18</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="24"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>19</v>
       </c>
@@ -4197,7 +4197,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="24"/>
     </row>
-    <row r="191" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A191" s="5">
         <v>20</v>
       </c>
@@ -4207,8 +4207,8 @@
       <c r="E191" s="6"/>
       <c r="F191" s="25"/>
     </row>
-    <row r="192" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="10" t="s">
         <v>2</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="E194" s="36"/>
       <c r="F194" s="37"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="11" t="s">
         <v>3</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>3</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>4</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>5</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="24"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>6</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="E201" s="3"/>
       <c r="F201" s="24"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>7</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="E202" s="3"/>
       <c r="F202" s="24"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>8</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="24"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>9</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="24"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>10</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="24"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>11</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="24"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>12</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="24"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>13</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="24"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>14</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="24"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>15</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="24"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>16</v>
       </c>
@@ -4458,7 +4458,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="24"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>17</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="24"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>18</v>
       </c>
@@ -4478,7 +4478,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="24"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>19</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="24"/>
     </row>
-    <row r="215" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A215" s="5">
         <v>20</v>
       </c>
@@ -4498,8 +4498,8 @@
       <c r="E215" s="6"/>
       <c r="F215" s="25"/>
     </row>
-    <row r="216" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="8" t="s">
         <v>0</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="10" t="s">
         <v>2</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="E218" s="36"/>
       <c r="F218" s="37"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="11" t="s">
         <v>3</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>3</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>4</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>5</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="21"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>6</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="21"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="E226" s="3"/>
       <c r="F226" s="24"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>8</v>
       </c>
@@ -4667,7 +4667,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="24"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>9</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="24"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>10</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="24"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>11</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="24"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>12</v>
       </c>
@@ -4707,7 +4707,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="24"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>13</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="24"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>14</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="24"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>15</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="24"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>16</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="24"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>17</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="24"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>18</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="24"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>19</v>
       </c>
@@ -4777,7 +4777,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="24"/>
     </row>
-    <row r="239" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A239" s="5">
         <v>20</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="E239" s="6"/>
       <c r="F239" s="25"/>
     </row>
-    <row r="240" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="10" t="s">
         <v>2</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="E242" s="36"/>
       <c r="F242" s="37"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="11" t="s">
         <v>3</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>1</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>3</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>4</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>5</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="E248" s="3"/>
       <c r="F248" s="21"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>6</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="21"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>7</v>
       </c>
@@ -4946,7 +4946,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="24"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="24"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>9</v>
       </c>
@@ -4966,7 +4966,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="24"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>10</v>
       </c>
@@ -4976,7 +4976,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="24"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>11</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="24"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>12</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="24"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>13</v>
       </c>
@@ -5006,7 +5006,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="24"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>14</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="24"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>15</v>
       </c>
@@ -5026,7 +5026,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="24"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>16</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="24"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>17</v>
       </c>
@@ -5046,7 +5046,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="24"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>18</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="24"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>19</v>
       </c>
@@ -5066,7 +5066,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="24"/>
     </row>
-    <row r="263" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A263" s="5">
         <v>20</v>
       </c>
@@ -5076,8 +5076,8 @@
       <c r="E263" s="6"/>
       <c r="F263" s="25"/>
     </row>
-    <row r="264" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="8" t="s">
         <v>0</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="10" t="s">
         <v>2</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="E266" s="36"/>
       <c r="F266" s="37"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="11" t="s">
         <v>3</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>1</v>
       </c>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H268" s="29"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H269" s="29"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>3</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>4</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>5</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>6</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="21"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>7</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="E274" s="3"/>
       <c r="F274" s="24"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>8</v>
       </c>
@@ -5260,7 +5260,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="24"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>9</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="24"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>10</v>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="24"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>11</v>
       </c>
@@ -5290,7 +5290,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="24"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>12</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="24"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>13</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="24"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>14</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="24"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>15</v>
       </c>
@@ -5330,7 +5330,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="24"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>16</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="24"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>17</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="24"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>18</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="24"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>19</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="24"/>
     </row>
-    <row r="287" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A287" s="5">
         <v>20</v>
       </c>
@@ -5380,8 +5380,8 @@
       <c r="E287" s="6"/>
       <c r="F287" s="25"/>
     </row>
-    <row r="288" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="8" t="s">
         <v>0</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="10" t="s">
         <v>2</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="E290" s="36"/>
       <c r="F290" s="37"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="11" t="s">
         <v>3</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>1</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>3</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>4</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>5</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="E296" s="3"/>
       <c r="F296" s="21"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>6</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="21"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>7</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="E298" s="3"/>
       <c r="F298" s="24"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>8</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="24"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>9</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="24"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>10</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="24"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>11</v>
       </c>
@@ -5582,7 +5582,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="24"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>12</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="24"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>13</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="24"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>14</v>
       </c>
@@ -5612,7 +5612,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="24"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>15</v>
       </c>
@@ -5622,7 +5622,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="24"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>16</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="24"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>17</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="24"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>18</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="24"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>19</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="24"/>
     </row>
-    <row r="311" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A311" s="5">
         <v>20</v>
       </c>
@@ -5701,21 +5701,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B458845-507D-4ED5-8FA8-1C5AB7E3FCB0}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="30.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="25.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -5747,7 +5747,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -6029,8 +6029,8 @@
       <c r="E23" s="32"/>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -6062,7 +6062,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -6328,7 +6328,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -6348,7 +6348,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -6358,7 +6358,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -6378,7 +6378,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -6388,7 +6388,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -6398,8 +6398,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="E62" s="20"/>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="E63" s="20"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -6655,7 +6655,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -6665,7 +6665,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -6695,7 +6695,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -6705,8 +6705,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -6738,7 +6738,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -6948,7 +6948,7 @@
       <c r="E86" s="20"/>
       <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="E87" s="20"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -6968,7 +6968,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -7018,7 +7018,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -7055,20 +7055,20 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="30.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="25.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -7100,7 +7100,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7326,7 +7326,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7366,7 +7366,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7386,7 +7386,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -7406,8 +7406,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -7545,7 +7545,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -7575,7 +7575,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -7585,7 +7585,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -7675,7 +7675,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -7685,7 +7685,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -7695,8 +7695,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="E56" s="20"/>
       <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -7844,7 +7844,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -7854,7 +7854,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -7864,7 +7864,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -7884,7 +7884,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -7914,7 +7914,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -7924,7 +7924,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -7934,7 +7934,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -7944,7 +7944,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -7964,7 +7964,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -7984,8 +7984,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -8161,7 +8161,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="E83" s="20"/>
       <c r="F83" s="22"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -8211,7 +8211,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -8221,7 +8221,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -8231,7 +8231,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -8251,7 +8251,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -8271,7 +8271,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -8281,7 +8281,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -8291,8 +8291,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -8490,7 +8490,7 @@
       <c r="E107" s="20"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -8500,7 +8500,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -8530,7 +8530,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -8550,7 +8550,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -8560,7 +8560,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -8590,7 +8590,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -8628,20 +8628,20 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="30.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="25.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8657,7 +8657,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -8669,7 +8669,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -8807,7 +8807,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8817,7 +8817,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -8827,7 +8827,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8837,7 +8837,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -8847,7 +8847,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -8857,7 +8857,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -8867,7 +8867,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -8877,7 +8877,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -8887,7 +8887,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -8897,7 +8897,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -8907,7 +8907,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -8917,7 +8917,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -8927,7 +8927,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -8937,8 +8937,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -8966,7 +8966,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -9032,7 +9032,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -9042,7 +9042,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -9052,7 +9052,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -9072,7 +9072,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -9082,7 +9082,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -9092,7 +9092,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -9102,7 +9102,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -9112,7 +9112,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -9132,7 +9132,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -9142,7 +9142,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -9162,7 +9162,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -9182,7 +9182,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -9192,7 +9192,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="5">
         <v>20</v>
       </c>

--- a/2. 데이터 정의자료/테이블명세서.xlsx
+++ b/2. 데이터 정의자료/테이블명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop_GripRoad\DataDiva\DataDiva_Datebase\2. 데이터 정의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A50EE8B-78B1-4856-A4DF-F7976DDCF381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC454F-EA5D-4090-852E-6DAAA694406C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="21120" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
+    <workbookView xWindow="-120" yWindow="27360" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
   </bookViews>
   <sheets>
     <sheet name="PG_TB (기본정보)" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="275">
   <si>
     <t>TableSeq</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -501,10 +501,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>키워드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공개 여부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -529,10 +525,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Keyword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IsOpen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -541,526 +533,522 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>TR_Report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_ReportDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_ReportAiSummary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 AI 요약 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 요약 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 파일 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_ReportRef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_ReportRefDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 참고 자료 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 참고 자료 내용 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고자료 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록심사 현황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefTitle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료 제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출처 링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 대표 글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsedDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효기간_월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효기간_년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVC번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호(앞 2자리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 별칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사 개인정보 제 3차 제공 동의 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAgreement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP_Month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP_Year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card_PW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardAlias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAR </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_Payment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMainPayment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 결제 수단 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentNetwork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 잔액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 충전 설정 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 충전 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 한글명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 영문명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 약명1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 약명2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 전화코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_Amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoChaAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAutoCha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoPaymentSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 충전 결제 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoLimitAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최소 임계 금액 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전 내역 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_ChrHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구서 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChrAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChrNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_Refund</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 신청 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행현황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 신청일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChrDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 코드번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swift 코드 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kimjeje.tistory.com/1110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Bank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 거절 사유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 계좌 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundReason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%B9%B4%EB%93%9C_%EB%B2%88%ED%98%B8%EC%9D%98_%EA%B5%AC%EC%84%B1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드정보 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사별 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwiftCodeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMR_ReportLike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 Like 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMR_ReportComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 댓글 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentSerl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 내부코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 생성 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CHAR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TR_Report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TR_ReportDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TR_ReportAiSummary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 AI 요약 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI 요약 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF 파일 경로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TR_ReportRef</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TR_ReportRefDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 참고 자료 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 참고 자료 내용 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고자료 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록심사 현황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefTitle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefStatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료 제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출처 링크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 대표 글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainComment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsedDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효기간_월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효기간_년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVC번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호(앞 2자리)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 별칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드사 개인정보 제 3차 제공 동의 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsAgreement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardNumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VP_Month</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VP_Year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card_PW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardAlias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAR </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaymentSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP_Payment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsMainPayment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 결제 수단 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 네트워크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaymentNetwork</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 잔액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 충전 설정 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 충전 금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>언어 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가 한글명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가 영문명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가 약명1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가 약명2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가 전화코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP_Amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrentAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoChaAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsAutoCha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoPaymentSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 충전 결제 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoLimitAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최소 임계 금액 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전 내역 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP_ChrHistory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청구서 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChrAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChrNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP_Refund</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 신청 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 은행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행현황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 신청일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChrDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 코드번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Swift 코드 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kimjeje.tistory.com/1110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Bank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundStatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankNumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 거절 사유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 계좌 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefundReason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%B9%B4%EB%93%9C_%EB%B2%88%ED%98%B8%EC%9D%98_%EA%B5%AC%EC%84%B1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드정보 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드사별 고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwiftCodeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMR_ReportLike</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 Like 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMR_ReportComment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 댓글 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommentSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommentSerl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대댓글 내부코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 생성 일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1082,6 +1070,66 @@
   </si>
   <si>
     <t>Rpt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심사 신청 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심사 완료 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartCheckTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndCheckTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1750,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAC3ED0-D041-41E3-85C7-BA9CF31CFF49}">
   <dimension ref="A1:H311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1781,7 +1829,7 @@
         <v>34</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1884,7 +1932,7 @@
         <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D7" s="20">
         <v>8</v>
@@ -1904,7 +1952,7 @@
         <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D8" s="20">
         <v>500</v>
@@ -2128,7 +2176,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2447,7 +2495,7 @@
         <v>34</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2751,7 +2799,7 @@
         <v>34</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2811,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>89</v>
@@ -2821,7 +2869,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2847,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>11</v>
@@ -3040,7 +3088,7 @@
         <v>34</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3331,7 +3379,7 @@
         <v>34</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3381,7 +3429,7 @@
         <v>10</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3401,7 +3449,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3421,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3441,7 +3489,7 @@
         <v>10</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3461,7 +3509,7 @@
         <v>10</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3481,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3651,7 +3699,7 @@
         <v>34</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3936,7 +3984,7 @@
         <v>34</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4225,7 +4273,7 @@
         <v>34</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4275,7 +4323,7 @@
         <v>31</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4516,7 +4564,7 @@
         <v>34</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4805,7 +4853,7 @@
         <v>34</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4863,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>18</v>
@@ -4875,7 +4923,7 @@
         <v>10</v>
       </c>
       <c r="F245" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5088,13 +5136,13 @@
         <v>1</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5102,7 +5150,7 @@
         <v>2</v>
       </c>
       <c r="B266" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C266" s="36"/>
       <c r="D266" s="36"/>
@@ -5129,7 +5177,7 @@
         <v>8</v>
       </c>
       <c r="H267" s="34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5137,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
@@ -5147,7 +5195,7 @@
         <v>10</v>
       </c>
       <c r="F268" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H268" s="29"/>
     </row>
@@ -5156,10 +5204,10 @@
         <v>2</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D269" s="20">
         <v>100</v>
@@ -5168,7 +5216,7 @@
         <v>10</v>
       </c>
       <c r="F269" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H269" s="29"/>
     </row>
@@ -5177,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>9</v>
@@ -5187,7 +5235,7 @@
         <v>10</v>
       </c>
       <c r="F270" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5195,7 +5243,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>11</v>
@@ -5207,7 +5255,7 @@
         <v>10</v>
       </c>
       <c r="F271" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5392,13 +5440,13 @@
         <v>1</v>
       </c>
       <c r="D289" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5406,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="B290" s="36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C290" s="36"/>
       <c r="D290" s="36"/>
@@ -5433,7 +5481,7 @@
         <v>8</v>
       </c>
       <c r="H291" s="35" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5441,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -5451,7 +5499,7 @@
         <v>10</v>
       </c>
       <c r="F292" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5459,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>11</v>
@@ -5471,7 +5519,7 @@
         <v>10</v>
       </c>
       <c r="F293" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5479,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>9</v>
@@ -5489,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="F294" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5702,7 +5750,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -5726,13 +5774,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5740,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -5792,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -5802,7 +5850,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5810,7 +5858,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>44</v>
@@ -5822,7 +5870,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5830,17 +5878,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5848,7 +5896,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -5858,7 +5906,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5866,7 +5914,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -5876,7 +5924,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6041,13 +6089,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6055,7 +6103,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
@@ -6107,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -6117,7 +6165,7 @@
         <v>31</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6125,10 +6173,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D30" s="20">
         <v>1</v>
@@ -6137,7 +6185,7 @@
         <v>31</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6145,7 +6193,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>18</v>
@@ -6157,7 +6205,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6165,7 +6213,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>44</v>
@@ -6177,7 +6225,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6185,7 +6233,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>44</v>
@@ -6197,7 +6245,7 @@
         <v>31</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6205,7 +6253,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>44</v>
@@ -6217,7 +6265,7 @@
         <v>31</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6225,7 +6273,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -6235,7 +6283,7 @@
         <v>31</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6243,7 +6291,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>44</v>
@@ -6255,7 +6303,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6263,7 +6311,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>18</v>
@@ -6275,7 +6323,7 @@
         <v>31</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6283,10 +6331,10 @@
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D38" s="20">
         <v>1</v>
@@ -6295,7 +6343,7 @@
         <v>31</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6410,13 +6458,13 @@
         <v>1</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6424,7 +6472,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
@@ -6476,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
@@ -6488,7 +6536,7 @@
         <v>31</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6496,7 +6544,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
@@ -6506,7 +6554,7 @@
         <v>31</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6514,17 +6562,17 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6532,7 +6580,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>89</v>
@@ -6542,7 +6590,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6717,13 +6765,13 @@
         <v>1</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6731,7 +6779,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
@@ -6783,7 +6831,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
@@ -6795,7 +6843,7 @@
         <v>31</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6803,7 +6851,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>89</v>
@@ -6813,7 +6861,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6821,17 +6869,17 @@
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6839,7 +6887,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>9</v>
@@ -6849,7 +6897,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6857,17 +6905,17 @@
         <v>6</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6875,17 +6923,17 @@
         <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6893,7 +6941,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>18</v>
@@ -6905,7 +6953,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7054,8 +7102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BBF849-436C-4F97-BC2B-F0C49C1210D3}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -7079,13 +7127,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7145,10 +7193,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
@@ -7163,7 +7211,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -7183,10 +7231,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
@@ -7201,7 +7249,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -7213,7 +7261,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7221,19 +7269,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>118</v>
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7241,19 +7289,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="20">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7261,19 +7309,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="20">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7281,70 +7329,118 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D12" s="20">
-        <v>100</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
+      <c r="B13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="26"/>
+      <c r="B14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="20">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="26"/>
+      <c r="B15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="20">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="26"/>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="20">
+        <v>100</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
@@ -7418,13 +7514,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7484,10 +7580,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18" t="s">
@@ -7502,17 +7598,17 @@
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7707,13 +7803,13 @@
         <v>1</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7721,7 +7817,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
@@ -7773,10 +7869,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18" t="s">
@@ -7791,17 +7887,17 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7996,13 +8092,13 @@
         <v>1</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8010,7 +8106,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
@@ -8062,10 +8158,10 @@
         <v>2</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18" t="s">
@@ -8080,17 +8176,17 @@
         <v>3</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8098,7 +8194,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>18</v>
@@ -8110,7 +8206,7 @@
         <v>31</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8118,17 +8214,17 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8136,40 +8232,56 @@
         <v>6</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="20">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D81" s="20"/>
       <c r="E81" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>7</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D82" s="20"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="22"/>
+      <c r="E82" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>8</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="22"/>
+      <c r="B83" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="20">
+        <v>100</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
@@ -8303,13 +8415,13 @@
         <v>1</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8317,7 +8429,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
@@ -8369,10 +8481,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="18" t="s">
@@ -8387,17 +8499,17 @@
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8405,7 +8517,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>18</v>
@@ -8417,7 +8529,7 @@
         <v>31</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8425,7 +8537,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>11</v>
@@ -8437,7 +8549,7 @@
         <v>31</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8445,7 +8557,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>18</v>
@@ -8457,7 +8569,7 @@
         <v>31</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8628,7 +8740,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -8652,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="14"/>
@@ -8662,7 +8774,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -8694,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -8712,7 +8824,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -8722,7 +8834,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8730,7 +8842,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -8740,7 +8852,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8751,7 +8863,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
@@ -8766,17 +8878,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8784,17 +8896,17 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8949,7 +9061,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="14"/>
@@ -8959,7 +9071,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
@@ -8991,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -9012,7 +9124,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18" t="s">

--- a/2. 데이터 정의자료/테이블명세서.xlsx
+++ b/2. 데이터 정의자료/테이블명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop_GripRoad\DataDiva\DataDiva_Datebase\2. 데이터 정의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC454F-EA5D-4090-852E-6DAAA694406C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46923318-A8D3-402D-81D6-E2467207856D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="27360" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
+    <workbookView xWindow="5115" yWindow="2625" windowWidth="21600" windowHeight="11100" activeTab="2" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
   </bookViews>
   <sheets>
     <sheet name="PG_TB (기본정보)" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="276">
   <si>
     <t>TableSeq</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1130,6 +1130,10 @@
   </si>
   <si>
     <t>EndCheckTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1802,17 +1806,17 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1848,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1964,7 +1968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2068,7 +2072,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2078,7 +2082,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2088,7 +2092,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2098,7 +2102,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2108,7 +2112,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2118,7 +2122,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2128,7 +2132,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2138,7 +2142,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2148,7 +2152,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2158,8 +2162,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -2191,7 +2195,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -2357,7 +2361,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -2367,7 +2371,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -2377,7 +2381,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -2387,7 +2391,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -2397,7 +2401,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -2407,7 +2411,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -2417,7 +2421,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -2427,7 +2431,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -2437,7 +2441,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -2447,7 +2451,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -2457,7 +2461,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -2467,7 +2471,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -2477,8 +2481,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -2510,7 +2514,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -2628,7 +2632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -2638,7 +2642,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -2648,7 +2652,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -2658,7 +2662,7 @@
       <c r="E59" s="15"/>
       <c r="F59" s="26"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -2668,7 +2672,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -2678,7 +2682,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -2688,7 +2692,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -2698,7 +2702,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -2708,7 +2712,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -2718,7 +2722,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -2728,7 +2732,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -2738,7 +2742,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -2748,7 +2752,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -2758,7 +2762,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -2768,7 +2772,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -2778,11 +2782,11 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="F72" s="30"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -2814,7 +2818,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -2920,7 +2924,7 @@
       <c r="E80" s="20"/>
       <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -2930,7 +2934,7 @@
       <c r="E81" s="20"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -2940,7 +2944,7 @@
       <c r="E82" s="20"/>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -2950,7 +2954,7 @@
       <c r="E83" s="15"/>
       <c r="F83" s="26"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -2960,7 +2964,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -2970,7 +2974,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -2980,7 +2984,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -2990,7 +2994,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -3000,7 +3004,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -3010,7 +3014,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -3020,7 +3024,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -3030,7 +3034,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -3040,7 +3044,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -3050,7 +3054,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -3060,7 +3064,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -3070,8 +3074,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
@@ -3103,7 +3107,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -3161,7 +3165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -3211,7 +3215,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="22"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -3221,7 +3225,7 @@
       <c r="E105" s="20"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -3231,7 +3235,7 @@
       <c r="E106" s="20"/>
       <c r="F106" s="22"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -3241,7 +3245,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="26"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -3251,7 +3255,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -3261,7 +3265,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -3271,7 +3275,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -3281,7 +3285,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -3291,7 +3295,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -3301,7 +3305,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -3311,7 +3315,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -3321,7 +3325,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -3331,7 +3335,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -3341,7 +3345,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -3351,7 +3355,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -3361,8 +3365,8 @@
       <c r="E119" s="28"/>
       <c r="F119" s="27"/>
     </row>
-    <row r="120" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>0</v>
       </c>
@@ -3382,7 +3386,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>2</v>
       </c>
@@ -3394,7 +3398,7 @@
       <c r="E122" s="36"/>
       <c r="F122" s="37"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>3</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -3432,7 +3436,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>3</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>5</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>6</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>7</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -3562,7 +3566,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="24"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>9</v>
       </c>
@@ -3571,7 +3575,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="24"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>10</v>
       </c>
@@ -3581,7 +3585,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="24"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>11</v>
       </c>
@@ -3591,7 +3595,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="24"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>12</v>
       </c>
@@ -3601,7 +3605,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="24"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>13</v>
       </c>
@@ -3611,7 +3615,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="24"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>14</v>
       </c>
@@ -3621,7 +3625,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="24"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>15</v>
       </c>
@@ -3631,7 +3635,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="24"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>16</v>
       </c>
@@ -3641,7 +3645,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="24"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>17</v>
       </c>
@@ -3651,7 +3655,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="24"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>18</v>
       </c>
@@ -3661,7 +3665,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="24"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>19</v>
       </c>
@@ -3671,7 +3675,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="24"/>
     </row>
-    <row r="143" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>20</v>
       </c>
@@ -3681,8 +3685,8 @@
       <c r="E143" s="6"/>
       <c r="F143" s="25"/>
     </row>
-    <row r="144" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3706,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>2</v>
       </c>
@@ -3714,7 +3718,7 @@
       <c r="E146" s="36"/>
       <c r="F146" s="37"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>3</v>
       </c>
@@ -3734,7 +3738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -3772,7 +3776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -3792,7 +3796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>4</v>
       </c>
@@ -3802,7 +3806,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="24"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -3812,7 +3816,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="24"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>6</v>
       </c>
@@ -3822,7 +3826,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="24"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>7</v>
       </c>
@@ -3832,7 +3836,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="24"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -3842,7 +3846,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="24"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>9</v>
       </c>
@@ -3852,7 +3856,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="24"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>10</v>
       </c>
@@ -3862,7 +3866,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="24"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>11</v>
       </c>
@@ -3872,7 +3876,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="24"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>12</v>
       </c>
@@ -3882,7 +3886,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="24"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>13</v>
       </c>
@@ -3892,7 +3896,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="24"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>14</v>
       </c>
@@ -3902,7 +3906,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="24"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>15</v>
       </c>
@@ -3912,7 +3916,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="24"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>16</v>
       </c>
@@ -3922,7 +3926,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="24"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>17</v>
       </c>
@@ -3932,7 +3936,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="24"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>18</v>
       </c>
@@ -3942,7 +3946,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="24"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>19</v>
       </c>
@@ -3952,7 +3956,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="24"/>
     </row>
-    <row r="167" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>20</v>
       </c>
@@ -3962,12 +3966,12 @@
       <c r="E167" s="6"/>
       <c r="F167" s="25"/>
     </row>
-    <row r="168" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7"/>
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>0</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>2</v>
       </c>
@@ -3999,7 +4003,7 @@
       <c r="E170" s="36"/>
       <c r="F170" s="37"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>3</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>3</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>4</v>
       </c>
@@ -4095,7 +4099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -4105,7 +4109,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="24"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>6</v>
       </c>
@@ -4115,7 +4119,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="24"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>7</v>
       </c>
@@ -4125,7 +4129,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="24"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>8</v>
       </c>
@@ -4135,7 +4139,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="24"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>9</v>
       </c>
@@ -4145,7 +4149,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="24"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>10</v>
       </c>
@@ -4155,7 +4159,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="24"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>11</v>
       </c>
@@ -4165,7 +4169,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="24"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>12</v>
       </c>
@@ -4175,7 +4179,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="24"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>13</v>
       </c>
@@ -4185,7 +4189,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="24"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>14</v>
       </c>
@@ -4195,7 +4199,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="24"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>15</v>
       </c>
@@ -4205,7 +4209,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="24"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>16</v>
       </c>
@@ -4215,7 +4219,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="24"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>17</v>
       </c>
@@ -4225,7 +4229,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="24"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>18</v>
       </c>
@@ -4235,7 +4239,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="24"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>19</v>
       </c>
@@ -4245,7 +4249,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="24"/>
     </row>
-    <row r="191" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>20</v>
       </c>
@@ -4255,8 +4259,8 @@
       <c r="E191" s="6"/>
       <c r="F191" s="25"/>
     </row>
-    <row r="192" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -4276,7 +4280,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>2</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="E194" s="36"/>
       <c r="F194" s="37"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>3</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4346,7 +4350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>3</v>
       </c>
@@ -4366,7 +4370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>4</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>5</v>
       </c>
@@ -4396,7 +4400,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="24"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>6</v>
       </c>
@@ -4406,7 +4410,7 @@
       <c r="E201" s="3"/>
       <c r="F201" s="24"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>7</v>
       </c>
@@ -4416,7 +4420,7 @@
       <c r="E202" s="3"/>
       <c r="F202" s="24"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>8</v>
       </c>
@@ -4426,7 +4430,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="24"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>9</v>
       </c>
@@ -4436,7 +4440,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="24"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>10</v>
       </c>
@@ -4446,7 +4450,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="24"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>11</v>
       </c>
@@ -4456,7 +4460,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="24"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>12</v>
       </c>
@@ -4466,7 +4470,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="24"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>13</v>
       </c>
@@ -4476,7 +4480,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="24"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>14</v>
       </c>
@@ -4486,7 +4490,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="24"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>15</v>
       </c>
@@ -4496,7 +4500,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="24"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>16</v>
       </c>
@@ -4506,7 +4510,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="24"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>17</v>
       </c>
@@ -4516,7 +4520,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="24"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>18</v>
       </c>
@@ -4526,7 +4530,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="24"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>19</v>
       </c>
@@ -4536,7 +4540,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="24"/>
     </row>
-    <row r="215" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>20</v>
       </c>
@@ -4546,8 +4550,8 @@
       <c r="E215" s="6"/>
       <c r="F215" s="25"/>
     </row>
-    <row r="216" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>0</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
         <v>2</v>
       </c>
@@ -4579,7 +4583,7 @@
       <c r="E218" s="36"/>
       <c r="F218" s="37"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
         <v>3</v>
       </c>
@@ -4599,7 +4603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -4617,7 +4621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>3</v>
       </c>
@@ -4655,7 +4659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>4</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>5</v>
       </c>
@@ -4685,7 +4689,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="21"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>6</v>
       </c>
@@ -4695,7 +4699,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="21"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -4705,7 +4709,7 @@
       <c r="E226" s="3"/>
       <c r="F226" s="24"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>8</v>
       </c>
@@ -4715,7 +4719,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="24"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>9</v>
       </c>
@@ -4725,7 +4729,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="24"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>10</v>
       </c>
@@ -4735,7 +4739,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="24"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>11</v>
       </c>
@@ -4745,7 +4749,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="24"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>12</v>
       </c>
@@ -4755,7 +4759,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="24"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>13</v>
       </c>
@@ -4765,7 +4769,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="24"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>14</v>
       </c>
@@ -4775,7 +4779,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="24"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>15</v>
       </c>
@@ -4785,7 +4789,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="24"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>16</v>
       </c>
@@ -4795,7 +4799,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="24"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>17</v>
       </c>
@@ -4805,7 +4809,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="24"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>18</v>
       </c>
@@ -4815,7 +4819,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="24"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>19</v>
       </c>
@@ -4825,7 +4829,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="24"/>
     </row>
-    <row r="239" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>20</v>
       </c>
@@ -4835,8 +4839,8 @@
       <c r="E239" s="6"/>
       <c r="F239" s="25"/>
     </row>
-    <row r="240" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
         <v>2</v>
       </c>
@@ -4868,7 +4872,7 @@
       <c r="E242" s="36"/>
       <c r="F242" s="37"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="11" t="s">
         <v>3</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>1</v>
       </c>
@@ -4906,7 +4910,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -4926,7 +4930,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>3</v>
       </c>
@@ -4944,7 +4948,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>4</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>5</v>
       </c>
@@ -4974,7 +4978,7 @@
       <c r="E248" s="3"/>
       <c r="F248" s="21"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>6</v>
       </c>
@@ -4984,7 +4988,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="21"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>7</v>
       </c>
@@ -4994,7 +4998,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="24"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -5004,7 +5008,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="24"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>9</v>
       </c>
@@ -5014,7 +5018,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="24"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>10</v>
       </c>
@@ -5024,7 +5028,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="24"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>11</v>
       </c>
@@ -5034,7 +5038,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="24"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>12</v>
       </c>
@@ -5044,7 +5048,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="24"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>13</v>
       </c>
@@ -5054,7 +5058,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="24"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>14</v>
       </c>
@@ -5064,7 +5068,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="24"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>15</v>
       </c>
@@ -5074,7 +5078,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="24"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>16</v>
       </c>
@@ -5084,7 +5088,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="24"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>17</v>
       </c>
@@ -5094,7 +5098,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="24"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>18</v>
       </c>
@@ -5104,7 +5108,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="24"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>19</v>
       </c>
@@ -5114,7 +5118,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="24"/>
     </row>
-    <row r="263" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>20</v>
       </c>
@@ -5124,8 +5128,8 @@
       <c r="E263" s="6"/>
       <c r="F263" s="25"/>
     </row>
-    <row r="264" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>0</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
         <v>2</v>
       </c>
@@ -5157,7 +5161,7 @@
       <c r="E266" s="36"/>
       <c r="F266" s="37"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
         <v>3</v>
       </c>
@@ -5180,7 +5184,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>1</v>
       </c>
@@ -5199,7 +5203,7 @@
       </c>
       <c r="H268" s="29"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -5220,7 +5224,7 @@
       </c>
       <c r="H269" s="29"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>3</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>4</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>5</v>
       </c>
@@ -5278,7 +5282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>6</v>
       </c>
@@ -5288,7 +5292,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="21"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>7</v>
       </c>
@@ -5298,7 +5302,7 @@
       <c r="E274" s="3"/>
       <c r="F274" s="24"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>8</v>
       </c>
@@ -5308,7 +5312,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="24"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>9</v>
       </c>
@@ -5318,7 +5322,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="24"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>10</v>
       </c>
@@ -5328,7 +5332,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="24"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>11</v>
       </c>
@@ -5338,7 +5342,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="24"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>12</v>
       </c>
@@ -5348,7 +5352,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="24"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>13</v>
       </c>
@@ -5358,7 +5362,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="24"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>14</v>
       </c>
@@ -5368,7 +5372,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="24"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>15</v>
       </c>
@@ -5378,7 +5382,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="24"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>16</v>
       </c>
@@ -5388,7 +5392,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="24"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>17</v>
       </c>
@@ -5398,7 +5402,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="24"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>18</v>
       </c>
@@ -5408,7 +5412,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="24"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>19</v>
       </c>
@@ -5418,7 +5422,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="24"/>
     </row>
-    <row r="287" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
         <v>20</v>
       </c>
@@ -5428,8 +5432,8 @@
       <c r="E287" s="6"/>
       <c r="F287" s="25"/>
     </row>
-    <row r="288" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
         <v>0</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
         <v>2</v>
       </c>
@@ -5461,7 +5465,7 @@
       <c r="E290" s="36"/>
       <c r="F290" s="37"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
         <v>3</v>
       </c>
@@ -5484,7 +5488,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>1</v>
       </c>
@@ -5502,7 +5506,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>3</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>4</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>5</v>
       </c>
@@ -5570,7 +5574,7 @@
       <c r="E296" s="3"/>
       <c r="F296" s="21"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>6</v>
       </c>
@@ -5580,7 +5584,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="21"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>7</v>
       </c>
@@ -5590,7 +5594,7 @@
       <c r="E298" s="3"/>
       <c r="F298" s="24"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>8</v>
       </c>
@@ -5600,7 +5604,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="24"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>9</v>
       </c>
@@ -5610,7 +5614,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="24"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>10</v>
       </c>
@@ -5620,7 +5624,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="24"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>11</v>
       </c>
@@ -5630,7 +5634,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="24"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>12</v>
       </c>
@@ -5640,7 +5644,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="24"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>13</v>
       </c>
@@ -5650,7 +5654,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="24"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>14</v>
       </c>
@@ -5660,7 +5664,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="24"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>15</v>
       </c>
@@ -5670,7 +5674,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="24"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>16</v>
       </c>
@@ -5680,7 +5684,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="24"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>17</v>
       </c>
@@ -5690,7 +5694,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="24"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>18</v>
       </c>
@@ -5700,7 +5704,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="24"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>19</v>
       </c>
@@ -5710,7 +5714,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="24"/>
     </row>
-    <row r="311" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="5">
         <v>20</v>
       </c>
@@ -5753,17 +5757,17 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5783,7 +5787,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -5795,7 +5799,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -5815,7 +5819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5853,7 +5857,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -5873,7 +5877,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -5891,7 +5895,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5927,7 +5931,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5957,7 +5961,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5967,7 +5971,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5977,7 +5981,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5987,7 +5991,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5997,7 +6001,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6007,7 +6011,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6017,7 +6021,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6027,7 +6031,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -6037,7 +6041,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -6047,7 +6051,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -6057,7 +6061,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -6067,7 +6071,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -6077,8 +6081,8 @@
       <c r="E23" s="32"/>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -6098,7 +6102,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -6110,7 +6114,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -6188,7 +6192,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -6306,7 +6310,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -6376,7 +6380,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -6386,7 +6390,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -6396,7 +6400,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -6406,7 +6410,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -6416,7 +6420,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -6426,7 +6430,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -6436,7 +6440,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -6446,8 +6450,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +6471,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -6479,7 +6483,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -6499,7 +6503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -6519,7 +6523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -6557,7 +6561,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -6593,7 +6597,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -6623,7 +6627,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -6633,7 +6637,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -6643,7 +6647,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -6653,7 +6657,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -6663,7 +6667,7 @@
       <c r="E62" s="20"/>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -6673,7 +6677,7 @@
       <c r="E63" s="20"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -6683,7 +6687,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -6693,7 +6697,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -6703,7 +6707,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -6713,7 +6717,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -6723,7 +6727,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -6733,7 +6737,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -6743,7 +6747,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -6753,8 +6757,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -6786,7 +6790,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -6826,7 +6830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -6846,7 +6850,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -6864,7 +6868,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -6882,7 +6886,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -6936,7 +6940,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -6956,7 +6960,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -6976,7 +6980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -6986,7 +6990,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -6996,7 +7000,7 @@
       <c r="E86" s="20"/>
       <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -7006,7 +7010,7 @@
       <c r="E87" s="20"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -7016,7 +7020,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -7026,7 +7030,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -7036,7 +7040,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -7046,7 +7050,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -7066,7 +7070,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -7076,7 +7080,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -7102,21 +7106,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BBF849-436C-4F97-BC2B-F0C49C1210D3}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -7148,7 +7152,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7206,7 +7210,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -7244,7 +7248,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -7284,7 +7288,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -7304,7 +7308,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -7324,7 +7328,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -7364,7 +7368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7404,7 +7408,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7452,7 +7456,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7462,7 +7466,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7472,7 +7476,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7482,7 +7486,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7492,7 +7496,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -7502,8 +7506,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -7523,7 +7527,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -7535,7 +7539,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -7611,7 +7615,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -7641,7 +7645,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -7651,7 +7655,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -7661,7 +7665,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -7671,7 +7675,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -7681,7 +7685,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -7691,7 +7695,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -7701,7 +7705,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -7711,7 +7715,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -7721,7 +7725,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -7731,7 +7735,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -7741,7 +7745,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -7751,7 +7755,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -7761,7 +7765,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -7771,7 +7775,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -7781,7 +7785,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -7791,8 +7795,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -7812,7 +7816,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -7824,7 +7828,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -7844,7 +7848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -7864,7 +7868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -7882,7 +7886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -7900,7 +7904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -7920,7 +7924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -7930,7 +7934,7 @@
       <c r="E56" s="20"/>
       <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -7940,7 +7944,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -7950,7 +7954,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -7960,7 +7964,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -7970,7 +7974,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -7980,7 +7984,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -7990,7 +7994,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -8000,7 +8004,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -8010,7 +8014,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -8020,7 +8024,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -8030,7 +8034,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -8040,7 +8044,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -8050,7 +8054,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -8060,7 +8064,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -8070,7 +8074,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -8080,8 +8084,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -8101,7 +8105,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -8113,7 +8117,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -8133,7 +8137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -8189,7 +8193,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -8227,7 +8231,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -8239,13 +8243,13 @@
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="20" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -8263,7 +8267,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -8283,7 +8287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -8293,7 +8297,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -8303,7 +8307,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -8313,7 +8317,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -8323,7 +8327,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -8333,7 +8337,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -8343,7 +8347,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -8353,7 +8357,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -8363,7 +8367,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -8373,7 +8377,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -8383,7 +8387,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -8393,7 +8397,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -8403,8 +8407,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -8424,7 +8428,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
@@ -8436,7 +8440,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -8456,7 +8460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -8494,7 +8498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -8532,7 +8536,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -8552,7 +8556,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -8592,7 +8596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -8602,7 +8606,7 @@
       <c r="E107" s="20"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -8612,7 +8616,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -8622,7 +8626,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -8632,7 +8636,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -8642,7 +8646,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -8652,7 +8656,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -8662,7 +8666,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -8672,7 +8676,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -8682,7 +8686,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -8692,7 +8696,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -8702,7 +8706,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -8712,7 +8716,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -8743,17 +8747,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8769,7 +8773,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -8781,7 +8785,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8819,7 +8823,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8837,7 +8841,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -8855,7 +8859,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8873,7 +8877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -8891,7 +8895,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -8919,7 +8923,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8929,7 +8933,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -8939,7 +8943,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8949,7 +8953,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -8959,7 +8963,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -8969,7 +8973,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -8979,7 +8983,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -8989,7 +8993,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -8999,7 +9003,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -9009,7 +9013,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9019,7 +9023,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9029,7 +9033,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9039,7 +9043,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -9049,8 +9053,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -9066,7 +9070,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -9078,7 +9082,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -9098,7 +9102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -9116,7 +9120,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -9134,7 +9138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -9144,7 +9148,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -9154,7 +9158,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -9164,7 +9168,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -9174,7 +9178,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -9184,7 +9188,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -9194,7 +9198,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -9204,7 +9208,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -9214,7 +9218,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -9224,7 +9228,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -9234,7 +9238,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -9244,7 +9248,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -9254,7 +9258,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -9264,7 +9268,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -9274,7 +9278,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -9284,7 +9288,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -9294,7 +9298,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -9304,7 +9308,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>

--- a/2. 데이터 정의자료/테이블명세서.xlsx
+++ b/2. 데이터 정의자료/테이블명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop_GripRoad\DataDiva\DataDiva_Datebase\2. 데이터 정의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46923318-A8D3-402D-81D6-E2467207856D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F6331-0847-46AD-B395-B52A1074AB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2625" windowWidth="21600" windowHeight="11100" activeTab="2" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
+    <workbookView xWindow="-33600" yWindow="4340" windowWidth="28800" windowHeight="15320" activeTab="1" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
   </bookViews>
   <sheets>
     <sheet name="PG_TB (기본정보)" sheetId="4" r:id="rId1"/>
@@ -1806,17 +1806,17 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="30.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="25.640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2132,7 +2132,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2162,8 +2162,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -2361,7 +2361,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -2381,7 +2381,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -2431,7 +2431,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -2481,8 +2481,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="E59" s="15"/>
       <c r="F59" s="26"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -2782,11 +2782,11 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A72" s="7"/>
       <c r="F72" s="30"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="E80" s="20"/>
       <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="E81" s="20"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="E82" s="20"/>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="E83" s="15"/>
       <c r="F83" s="26"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -3054,7 +3054,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -3074,8 +3074,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="22"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -3225,7 +3225,7 @@
       <c r="E105" s="20"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="E106" s="20"/>
       <c r="F106" s="22"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="26"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -3365,8 +3365,8 @@
       <c r="E119" s="28"/>
       <c r="F119" s="27"/>
     </row>
-    <row r="120" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8" t="s">
         <v>0</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
         <v>2</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="E122" s="36"/>
       <c r="F122" s="37"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="11" t="s">
         <v>3</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>3</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>5</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>6</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>7</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="24"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>9</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="24"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>10</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="24"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>11</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="24"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>12</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="24"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>13</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="24"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>14</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="24"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>15</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="24"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>16</v>
       </c>
@@ -3645,7 +3645,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="24"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>17</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="24"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>18</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="24"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>19</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="24"/>
     </row>
-    <row r="143" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A143" s="5">
         <v>20</v>
       </c>
@@ -3685,8 +3685,8 @@
       <c r="E143" s="6"/>
       <c r="F143" s="25"/>
     </row>
-    <row r="144" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
         <v>2</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="E146" s="36"/>
       <c r="F146" s="37"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="11" t="s">
         <v>3</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>4</v>
       </c>
@@ -3806,7 +3806,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="24"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="24"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>6</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="24"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>7</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="24"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="24"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>9</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="24"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>10</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="24"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>11</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="24"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>12</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="24"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>13</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="24"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>14</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="24"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>15</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="24"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>16</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="24"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>17</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="24"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>18</v>
       </c>
@@ -3946,7 +3946,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="24"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>19</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="24"/>
     </row>
-    <row r="167" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A167" s="5">
         <v>20</v>
       </c>
@@ -3966,12 +3966,12 @@
       <c r="E167" s="6"/>
       <c r="F167" s="25"/>
     </row>
-    <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A168" s="7"/>
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8" t="s">
         <v>0</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="10" t="s">
         <v>2</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="E170" s="36"/>
       <c r="F170" s="37"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="11" t="s">
         <v>3</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>3</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>4</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="24"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>6</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="24"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>7</v>
       </c>
@@ -4129,7 +4129,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="24"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>8</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="24"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>9</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="24"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>10</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="24"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>11</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="24"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>12</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="24"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>13</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="24"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>14</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="24"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>15</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="24"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>16</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="24"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>17</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="24"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>18</v>
       </c>
@@ -4239,7 +4239,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="24"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>19</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="24"/>
     </row>
-    <row r="191" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A191" s="5">
         <v>20</v>
       </c>
@@ -4259,8 +4259,8 @@
       <c r="E191" s="6"/>
       <c r="F191" s="25"/>
     </row>
-    <row r="192" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="10" t="s">
         <v>2</v>
       </c>
@@ -4292,7 +4292,7 @@
       <c r="E194" s="36"/>
       <c r="F194" s="37"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="11" t="s">
         <v>3</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>3</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>4</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>5</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="24"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>6</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="E201" s="3"/>
       <c r="F201" s="24"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>7</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="E202" s="3"/>
       <c r="F202" s="24"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>8</v>
       </c>
@@ -4430,7 +4430,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="24"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>9</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="24"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>10</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="24"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>11</v>
       </c>
@@ -4460,7 +4460,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="24"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>12</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="24"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>13</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="24"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>14</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="24"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>15</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="24"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>16</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="24"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>17</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="24"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>18</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="24"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>19</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="24"/>
     </row>
-    <row r="215" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A215" s="5">
         <v>20</v>
       </c>
@@ -4550,8 +4550,8 @@
       <c r="E215" s="6"/>
       <c r="F215" s="25"/>
     </row>
-    <row r="216" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="8" t="s">
         <v>0</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="10" t="s">
         <v>2</v>
       </c>
@@ -4583,7 +4583,7 @@
       <c r="E218" s="36"/>
       <c r="F218" s="37"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="11" t="s">
         <v>3</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>3</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>4</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>5</v>
       </c>
@@ -4689,7 +4689,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="21"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>6</v>
       </c>
@@ -4699,7 +4699,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="21"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -4709,7 +4709,7 @@
       <c r="E226" s="3"/>
       <c r="F226" s="24"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>8</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="24"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>9</v>
       </c>
@@ -4729,7 +4729,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="24"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>10</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="24"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>11</v>
       </c>
@@ -4749,7 +4749,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="24"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>12</v>
       </c>
@@ -4759,7 +4759,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="24"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>13</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="24"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>14</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="24"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>15</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="24"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>16</v>
       </c>
@@ -4799,7 +4799,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="24"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>17</v>
       </c>
@@ -4809,7 +4809,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="24"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>18</v>
       </c>
@@ -4819,7 +4819,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="24"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>19</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="24"/>
     </row>
-    <row r="239" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A239" s="5">
         <v>20</v>
       </c>
@@ -4839,8 +4839,8 @@
       <c r="E239" s="6"/>
       <c r="F239" s="25"/>
     </row>
-    <row r="240" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="10" t="s">
         <v>2</v>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="E242" s="36"/>
       <c r="F242" s="37"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="11" t="s">
         <v>3</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>1</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>3</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>4</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>5</v>
       </c>
@@ -4978,7 +4978,7 @@
       <c r="E248" s="3"/>
       <c r="F248" s="21"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>6</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="21"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>7</v>
       </c>
@@ -4998,7 +4998,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="24"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="24"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>9</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="24"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>10</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="24"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>11</v>
       </c>
@@ -5038,7 +5038,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="24"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>12</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="24"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>13</v>
       </c>
@@ -5058,7 +5058,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="24"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>14</v>
       </c>
@@ -5068,7 +5068,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="24"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>15</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="24"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>16</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="24"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>17</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="24"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>18</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="24"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>19</v>
       </c>
@@ -5118,7 +5118,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="24"/>
     </row>
-    <row r="263" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A263" s="5">
         <v>20</v>
       </c>
@@ -5128,8 +5128,8 @@
       <c r="E263" s="6"/>
       <c r="F263" s="25"/>
     </row>
-    <row r="264" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="8" t="s">
         <v>0</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="10" t="s">
         <v>2</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="E266" s="36"/>
       <c r="F266" s="37"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="11" t="s">
         <v>3</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>1</v>
       </c>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="H268" s="29"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="H269" s="29"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>3</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>4</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>5</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>6</v>
       </c>
@@ -5292,7 +5292,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="21"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>7</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="E274" s="3"/>
       <c r="F274" s="24"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>8</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="24"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>9</v>
       </c>
@@ -5322,7 +5322,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="24"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>10</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="24"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>11</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="24"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>12</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="24"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>13</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="24"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>14</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="24"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>15</v>
       </c>
@@ -5382,7 +5382,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="24"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>16</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="24"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>17</v>
       </c>
@@ -5402,7 +5402,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="24"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>18</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="24"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>19</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="24"/>
     </row>
-    <row r="287" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A287" s="5">
         <v>20</v>
       </c>
@@ -5432,8 +5432,8 @@
       <c r="E287" s="6"/>
       <c r="F287" s="25"/>
     </row>
-    <row r="288" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="8" t="s">
         <v>0</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="10" t="s">
         <v>2</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="E290" s="36"/>
       <c r="F290" s="37"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="11" t="s">
         <v>3</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>1</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>3</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>4</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>5</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="E296" s="3"/>
       <c r="F296" s="21"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>6</v>
       </c>
@@ -5584,7 +5584,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="21"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>7</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="E298" s="3"/>
       <c r="F298" s="24"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>8</v>
       </c>
@@ -5604,7 +5604,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="24"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>9</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="24"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>10</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="24"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>11</v>
       </c>
@@ -5634,7 +5634,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="24"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>12</v>
       </c>
@@ -5644,7 +5644,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="24"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>13</v>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="24"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>14</v>
       </c>
@@ -5664,7 +5664,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="24"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>15</v>
       </c>
@@ -5674,7 +5674,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="24"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>16</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="24"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>17</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="24"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>18</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="24"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>19</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="24"/>
     </row>
-    <row r="311" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A311" s="5">
         <v>20</v>
       </c>
@@ -5753,21 +5753,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B458845-507D-4ED5-8FA8-1C5AB7E3FCB0}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="30.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="25.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5971,7 +5971,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -6081,8 +6081,8 @@
       <c r="E23" s="32"/>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -6220,10 +6220,10 @@
         <v>159</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D32" s="20">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>31</v>
@@ -6232,7 +6232,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -6390,7 +6390,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -6450,8 +6450,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="E62" s="20"/>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -6677,7 +6677,7 @@
       <c r="E63" s="20"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -6687,7 +6687,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -6717,7 +6717,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -6727,7 +6727,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -6757,8 +6757,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -6790,7 +6790,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="E86" s="20"/>
       <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -7010,7 +7010,7 @@
       <c r="E87" s="20"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -7050,7 +7050,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -7080,7 +7080,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -7106,21 +7106,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BBF849-436C-4F97-BC2B-F0C49C1210D3}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="30.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="25.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7456,7 +7456,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7466,7 +7466,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7496,7 +7496,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -7506,8 +7506,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -7675,7 +7675,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -7685,7 +7685,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -7705,7 +7705,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -7725,7 +7725,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -7735,7 +7735,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -7745,7 +7745,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -7765,7 +7765,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -7785,7 +7785,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -7795,8 +7795,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -7828,7 +7828,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -7934,7 +7934,7 @@
       <c r="E56" s="20"/>
       <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -7944,7 +7944,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -7964,7 +7964,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -7984,7 +7984,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -7994,7 +7994,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -8004,7 +8004,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -8014,7 +8014,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -8034,7 +8034,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -8044,7 +8044,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -8054,7 +8054,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -8064,7 +8064,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -8074,7 +8074,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -8084,8 +8084,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -8297,7 +8297,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -8307,7 +8307,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -8317,7 +8317,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -8327,7 +8327,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -8337,7 +8337,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -8347,7 +8347,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -8357,7 +8357,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -8377,7 +8377,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -8387,7 +8387,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -8407,8 +8407,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
@@ -8440,7 +8440,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="E107" s="20"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -8616,7 +8616,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -8626,7 +8626,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -8636,7 +8636,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -8646,7 +8646,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -8656,7 +8656,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -8676,7 +8676,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -8686,7 +8686,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -8696,7 +8696,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -8706,7 +8706,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -8716,7 +8716,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -8747,17 +8747,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="30.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="25.640625" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8773,7 +8773,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -8785,7 +8785,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8933,7 +8933,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -8943,7 +8943,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -8973,7 +8973,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -8983,7 +8983,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -8993,7 +8993,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -9003,7 +9003,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -9013,7 +9013,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9033,7 +9033,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9043,7 +9043,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -9053,8 +9053,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -9070,7 +9070,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -9082,7 +9082,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -9148,7 +9148,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -9168,7 +9168,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -9188,7 +9188,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -9198,7 +9198,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -9208,7 +9208,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -9228,7 +9228,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -9238,7 +9238,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -9248,7 +9248,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -9268,7 +9268,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -9278,7 +9278,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -9288,7 +9288,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -9308,7 +9308,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="5">
         <v>20</v>
       </c>

--- a/2. 데이터 정의자료/테이블명세서.xlsx
+++ b/2. 데이터 정의자료/테이블명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop_GripRoad\DataDiva\DataDiva_Datebase\2. 데이터 정의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F6331-0847-46AD-B395-B52A1074AB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8822C-D605-42A5-A5A8-FE5BC6A2E580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="4340" windowWidth="28800" windowHeight="15320" activeTab="1" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{739CFB84-1879-48C6-BE87-3F89BD02A089}"/>
   </bookViews>
   <sheets>
     <sheet name="PG_TB (기본정보)" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="278">
   <si>
     <t>TableSeq</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1134,6 +1134,14 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 결과일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefundDateEndTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1806,17 +1814,17 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1844,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1848,7 +1856,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1868,7 +1876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1888,7 +1896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1908,7 +1916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1928,7 +1936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2004,7 +2012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2022,7 +2030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2042,7 +2050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2062,7 +2070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2072,7 +2080,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2082,7 +2090,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2092,7 +2100,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2102,7 +2110,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2112,7 +2120,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2122,7 +2130,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2132,7 +2140,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2142,7 +2150,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2152,7 +2160,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2162,8 +2170,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -2195,7 +2203,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -2215,7 +2223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2235,7 +2243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2255,7 +2263,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -2275,7 +2283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -2311,7 +2319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -2351,7 +2359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -2361,7 +2369,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -2371,7 +2379,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -2381,7 +2389,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -2391,7 +2399,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -2401,7 +2409,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -2411,7 +2419,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -2421,7 +2429,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -2431,7 +2439,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -2441,7 +2449,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -2451,7 +2459,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -2461,7 +2469,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -2471,7 +2479,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -2481,8 +2489,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -2514,7 +2522,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -2534,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -2554,7 +2562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -2574,7 +2582,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -2592,7 +2600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -2612,7 +2620,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -2632,7 +2640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -2642,7 +2650,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -2652,7 +2660,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -2662,7 +2670,7 @@
       <c r="E59" s="15"/>
       <c r="F59" s="26"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -2672,7 +2680,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -2682,7 +2690,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -2692,7 +2700,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -2702,7 +2710,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -2712,7 +2720,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -2722,7 +2730,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -2732,7 +2740,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -2742,7 +2750,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -2752,7 +2760,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -2762,7 +2770,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -2772,7 +2780,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -2782,11 +2790,11 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="F72" s="30"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2814,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -2818,7 +2826,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -2858,7 +2866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -2876,7 +2884,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -2894,7 +2902,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -2914,7 +2922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -2924,7 +2932,7 @@
       <c r="E80" s="20"/>
       <c r="F80" s="22"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -2934,7 +2942,7 @@
       <c r="E81" s="20"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -2944,7 +2952,7 @@
       <c r="E82" s="20"/>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -2954,7 +2962,7 @@
       <c r="E83" s="15"/>
       <c r="F83" s="26"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -2964,7 +2972,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -2974,7 +2982,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -2984,7 +2992,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -2994,7 +3002,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -3004,7 +3012,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -3014,7 +3022,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -3024,7 +3032,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -3034,7 +3042,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -3044,7 +3052,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -3054,7 +3062,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -3064,7 +3072,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -3074,8 +3082,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3103,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +3115,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -3127,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -3147,7 +3155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -3165,7 +3173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -3185,7 +3193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -3205,7 +3213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -3215,7 +3223,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="22"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -3225,7 +3233,7 @@
       <c r="E105" s="20"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -3235,7 +3243,7 @@
       <c r="E106" s="20"/>
       <c r="F106" s="22"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -3245,7 +3253,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="26"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -3255,7 +3263,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -3265,7 +3273,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -3275,7 +3283,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -3285,7 +3293,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -3295,7 +3303,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -3305,7 +3313,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -3315,7 +3323,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -3325,7 +3333,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -3335,7 +3343,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -3345,7 +3353,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -3355,7 +3363,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -3365,8 +3373,8 @@
       <c r="E119" s="28"/>
       <c r="F119" s="27"/>
     </row>
-    <row r="120" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>0</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>2</v>
       </c>
@@ -3398,7 +3406,7 @@
       <c r="E122" s="36"/>
       <c r="F122" s="37"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>3</v>
       </c>
@@ -3418,7 +3426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3456,7 +3464,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>3</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -3496,7 +3504,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>5</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>6</v>
       </c>
@@ -3536,7 +3544,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>7</v>
       </c>
@@ -3556,7 +3564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>8</v>
       </c>
@@ -3566,7 +3574,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="24"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>9</v>
       </c>
@@ -3575,7 +3583,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="24"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>10</v>
       </c>
@@ -3585,7 +3593,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="24"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>11</v>
       </c>
@@ -3595,7 +3603,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="24"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>12</v>
       </c>
@@ -3605,7 +3613,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="24"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>13</v>
       </c>
@@ -3615,7 +3623,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="24"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>14</v>
       </c>
@@ -3625,7 +3633,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="24"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>15</v>
       </c>
@@ -3635,7 +3643,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="24"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>16</v>
       </c>
@@ -3645,7 +3653,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="24"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>17</v>
       </c>
@@ -3655,7 +3663,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="24"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>18</v>
       </c>
@@ -3665,7 +3673,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="24"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>19</v>
       </c>
@@ -3675,7 +3683,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="24"/>
     </row>
-    <row r="143" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>20</v>
       </c>
@@ -3685,8 +3693,8 @@
       <c r="E143" s="6"/>
       <c r="F143" s="25"/>
     </row>
-    <row r="144" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3714,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>2</v>
       </c>
@@ -3718,7 +3726,7 @@
       <c r="E146" s="36"/>
       <c r="F146" s="37"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>3</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -3756,7 +3764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -3776,7 +3784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -3796,7 +3804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>4</v>
       </c>
@@ -3806,7 +3814,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="24"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -3816,7 +3824,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="24"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>6</v>
       </c>
@@ -3826,7 +3834,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="24"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>7</v>
       </c>
@@ -3836,7 +3844,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="24"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -3846,7 +3854,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="24"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>9</v>
       </c>
@@ -3856,7 +3864,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="24"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>10</v>
       </c>
@@ -3866,7 +3874,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="24"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>11</v>
       </c>
@@ -3876,7 +3884,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="24"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>12</v>
       </c>
@@ -3886,7 +3894,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="24"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>13</v>
       </c>
@@ -3896,7 +3904,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="24"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>14</v>
       </c>
@@ -3906,7 +3914,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="24"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>15</v>
       </c>
@@ -3916,7 +3924,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="24"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>16</v>
       </c>
@@ -3926,7 +3934,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="24"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>17</v>
       </c>
@@ -3936,7 +3944,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="24"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>18</v>
       </c>
@@ -3946,7 +3954,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="24"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>19</v>
       </c>
@@ -3956,7 +3964,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="24"/>
     </row>
-    <row r="167" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>20</v>
       </c>
@@ -3966,12 +3974,12 @@
       <c r="E167" s="6"/>
       <c r="F167" s="25"/>
     </row>
-    <row r="168" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7"/>
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>0</v>
       </c>
@@ -3991,7 +3999,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>2</v>
       </c>
@@ -4003,7 +4011,7 @@
       <c r="E170" s="36"/>
       <c r="F170" s="37"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>3</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -4041,7 +4049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>3</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>4</v>
       </c>
@@ -4099,7 +4107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -4109,7 +4117,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="24"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>6</v>
       </c>
@@ -4119,7 +4127,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="24"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>7</v>
       </c>
@@ -4129,7 +4137,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="24"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>8</v>
       </c>
@@ -4139,7 +4147,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="24"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>9</v>
       </c>
@@ -4149,7 +4157,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="24"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>10</v>
       </c>
@@ -4159,7 +4167,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="24"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>11</v>
       </c>
@@ -4169,7 +4177,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="24"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>12</v>
       </c>
@@ -4179,7 +4187,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="24"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>13</v>
       </c>
@@ -4189,7 +4197,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="24"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>14</v>
       </c>
@@ -4199,7 +4207,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="24"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>15</v>
       </c>
@@ -4209,7 +4217,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="24"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>16</v>
       </c>
@@ -4219,7 +4227,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="24"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>17</v>
       </c>
@@ -4229,7 +4237,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="24"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>18</v>
       </c>
@@ -4239,7 +4247,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="24"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>19</v>
       </c>
@@ -4249,7 +4257,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="24"/>
     </row>
-    <row r="191" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>20</v>
       </c>
@@ -4259,8 +4267,8 @@
       <c r="E191" s="6"/>
       <c r="F191" s="25"/>
     </row>
-    <row r="192" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>2</v>
       </c>
@@ -4292,7 +4300,7 @@
       <c r="E194" s="36"/>
       <c r="F194" s="37"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>3</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -4330,7 +4338,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4350,7 +4358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>3</v>
       </c>
@@ -4370,7 +4378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>4</v>
       </c>
@@ -4390,7 +4398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>5</v>
       </c>
@@ -4400,7 +4408,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="24"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>6</v>
       </c>
@@ -4410,7 +4418,7 @@
       <c r="E201" s="3"/>
       <c r="F201" s="24"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>7</v>
       </c>
@@ -4420,7 +4428,7 @@
       <c r="E202" s="3"/>
       <c r="F202" s="24"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>8</v>
       </c>
@@ -4430,7 +4438,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="24"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>9</v>
       </c>
@@ -4440,7 +4448,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="24"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>10</v>
       </c>
@@ -4450,7 +4458,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="24"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>11</v>
       </c>
@@ -4460,7 +4468,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="24"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>12</v>
       </c>
@@ -4470,7 +4478,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="24"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>13</v>
       </c>
@@ -4480,7 +4488,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="24"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>14</v>
       </c>
@@ -4490,7 +4498,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="24"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>15</v>
       </c>
@@ -4500,7 +4508,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="24"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>16</v>
       </c>
@@ -4510,7 +4518,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="24"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>17</v>
       </c>
@@ -4520,7 +4528,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="24"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>18</v>
       </c>
@@ -4530,7 +4538,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="24"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>19</v>
       </c>
@@ -4540,7 +4548,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="24"/>
     </row>
-    <row r="215" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>20</v>
       </c>
@@ -4550,8 +4558,8 @@
       <c r="E215" s="6"/>
       <c r="F215" s="25"/>
     </row>
-    <row r="216" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>0</v>
       </c>
@@ -4571,7 +4579,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
         <v>2</v>
       </c>
@@ -4583,7 +4591,7 @@
       <c r="E218" s="36"/>
       <c r="F218" s="37"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
         <v>3</v>
       </c>
@@ -4603,7 +4611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -4621,7 +4629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -4639,7 +4647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>3</v>
       </c>
@@ -4659,7 +4667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>4</v>
       </c>
@@ -4679,7 +4687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>5</v>
       </c>
@@ -4689,7 +4697,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="21"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>6</v>
       </c>
@@ -4699,7 +4707,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="21"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -4709,7 +4717,7 @@
       <c r="E226" s="3"/>
       <c r="F226" s="24"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>8</v>
       </c>
@@ -4719,7 +4727,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="24"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>9</v>
       </c>
@@ -4729,7 +4737,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="24"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>10</v>
       </c>
@@ -4739,7 +4747,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="24"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>11</v>
       </c>
@@ -4749,7 +4757,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="24"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>12</v>
       </c>
@@ -4759,7 +4767,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="24"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>13</v>
       </c>
@@ -4769,7 +4777,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="24"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>14</v>
       </c>
@@ -4779,7 +4787,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="24"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>15</v>
       </c>
@@ -4789,7 +4797,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="24"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>16</v>
       </c>
@@ -4799,7 +4807,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="24"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>17</v>
       </c>
@@ -4809,7 +4817,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="24"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>18</v>
       </c>
@@ -4819,7 +4827,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="24"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>19</v>
       </c>
@@ -4829,7 +4837,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="24"/>
     </row>
-    <row r="239" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
         <v>20</v>
       </c>
@@ -4839,8 +4847,8 @@
       <c r="E239" s="6"/>
       <c r="F239" s="25"/>
     </row>
-    <row r="240" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4868,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
         <v>2</v>
       </c>
@@ -4872,7 +4880,7 @@
       <c r="E242" s="36"/>
       <c r="F242" s="37"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="11" t="s">
         <v>3</v>
       </c>
@@ -4892,7 +4900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>1</v>
       </c>
@@ -4910,7 +4918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -4930,7 +4938,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>3</v>
       </c>
@@ -4948,7 +4956,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>4</v>
       </c>
@@ -4968,7 +4976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>5</v>
       </c>
@@ -4978,7 +4986,7 @@
       <c r="E248" s="3"/>
       <c r="F248" s="21"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>6</v>
       </c>
@@ -4988,7 +4996,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="21"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>7</v>
       </c>
@@ -4998,7 +5006,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="24"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -5008,7 +5016,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="24"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>9</v>
       </c>
@@ -5018,7 +5026,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="24"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>10</v>
       </c>
@@ -5028,7 +5036,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="24"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>11</v>
       </c>
@@ -5038,7 +5046,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="24"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>12</v>
       </c>
@@ -5048,7 +5056,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="24"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>13</v>
       </c>
@@ -5058,7 +5066,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="24"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>14</v>
       </c>
@@ -5068,7 +5076,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="24"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>15</v>
       </c>
@@ -5078,7 +5086,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="24"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>16</v>
       </c>
@@ -5088,7 +5096,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="24"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>17</v>
       </c>
@@ -5098,7 +5106,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="24"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>18</v>
       </c>
@@ -5108,7 +5116,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="24"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>19</v>
       </c>
@@ -5118,7 +5126,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="24"/>
     </row>
-    <row r="263" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
         <v>20</v>
       </c>
@@ -5128,8 +5136,8 @@
       <c r="E263" s="6"/>
       <c r="F263" s="25"/>
     </row>
-    <row r="264" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>0</v>
       </c>
@@ -5149,7 +5157,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
         <v>2</v>
       </c>
@@ -5161,7 +5169,7 @@
       <c r="E266" s="36"/>
       <c r="F266" s="37"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
         <v>3</v>
       </c>
@@ -5184,7 +5192,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>1</v>
       </c>
@@ -5203,7 +5211,7 @@
       </c>
       <c r="H268" s="29"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -5224,7 +5232,7 @@
       </c>
       <c r="H269" s="29"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>3</v>
       </c>
@@ -5242,7 +5250,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>4</v>
       </c>
@@ -5262,7 +5270,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>5</v>
       </c>
@@ -5282,7 +5290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>6</v>
       </c>
@@ -5292,7 +5300,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="21"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>7</v>
       </c>
@@ -5302,7 +5310,7 @@
       <c r="E274" s="3"/>
       <c r="F274" s="24"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>8</v>
       </c>
@@ -5312,7 +5320,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="24"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>9</v>
       </c>
@@ -5322,7 +5330,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="24"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>10</v>
       </c>
@@ -5332,7 +5340,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="24"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>11</v>
       </c>
@@ -5342,7 +5350,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="24"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>12</v>
       </c>
@@ -5352,7 +5360,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="24"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>13</v>
       </c>
@@ -5362,7 +5370,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="24"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>14</v>
       </c>
@@ -5372,7 +5380,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="24"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>15</v>
       </c>
@@ -5382,7 +5390,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="24"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>16</v>
       </c>
@@ -5392,7 +5400,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="24"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>17</v>
       </c>
@@ -5402,7 +5410,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="24"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>18</v>
       </c>
@@ -5412,7 +5420,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="24"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>19</v>
       </c>
@@ -5422,7 +5430,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="24"/>
     </row>
-    <row r="287" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
         <v>20</v>
       </c>
@@ -5432,8 +5440,8 @@
       <c r="E287" s="6"/>
       <c r="F287" s="25"/>
     </row>
-    <row r="288" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
         <v>0</v>
       </c>
@@ -5453,7 +5461,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
         <v>2</v>
       </c>
@@ -5465,7 +5473,7 @@
       <c r="E290" s="36"/>
       <c r="F290" s="37"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
         <v>3</v>
       </c>
@@ -5488,7 +5496,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>1</v>
       </c>
@@ -5506,7 +5514,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -5526,7 +5534,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>3</v>
       </c>
@@ -5544,7 +5552,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>4</v>
       </c>
@@ -5564,7 +5572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>5</v>
       </c>
@@ -5574,7 +5582,7 @@
       <c r="E296" s="3"/>
       <c r="F296" s="21"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>6</v>
       </c>
@@ -5584,7 +5592,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="21"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>7</v>
       </c>
@@ -5594,7 +5602,7 @@
       <c r="E298" s="3"/>
       <c r="F298" s="24"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>8</v>
       </c>
@@ -5604,7 +5612,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="24"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>9</v>
       </c>
@@ -5614,7 +5622,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="24"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>10</v>
       </c>
@@ -5624,7 +5632,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="24"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>11</v>
       </c>
@@ -5634,7 +5642,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="24"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>12</v>
       </c>
@@ -5644,7 +5652,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="24"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>13</v>
       </c>
@@ -5654,7 +5662,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="24"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>14</v>
       </c>
@@ -5664,7 +5672,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="24"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>15</v>
       </c>
@@ -5674,7 +5682,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="24"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>16</v>
       </c>
@@ -5684,7 +5692,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="24"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>17</v>
       </c>
@@ -5694,7 +5702,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="24"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>18</v>
       </c>
@@ -5704,7 +5712,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="24"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>19</v>
       </c>
@@ -5714,7 +5722,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="24"/>
     </row>
-    <row r="311" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="5">
         <v>20</v>
       </c>
@@ -5753,21 +5761,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B458845-507D-4ED5-8FA8-1C5AB7E3FCB0}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5787,7 +5795,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -5799,7 +5807,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -5819,7 +5827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5839,7 +5847,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5857,7 +5865,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -5877,7 +5885,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -5913,7 +5921,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -5931,7 +5939,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -5951,7 +5959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -5961,7 +5969,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5971,7 +5979,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5981,7 +5989,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5991,7 +5999,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -6001,7 +6009,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -6011,7 +6019,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -6021,7 +6029,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -6031,7 +6039,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -6041,7 +6049,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -6051,7 +6059,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -6061,7 +6069,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -6071,7 +6079,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -6081,8 +6089,8 @@
       <c r="E23" s="32"/>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -6102,7 +6110,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -6114,7 +6122,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -6134,7 +6142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6154,7 +6162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -6172,7 +6180,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -6232,7 +6240,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -6252,7 +6260,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -6272,7 +6280,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -6290,7 +6298,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -6310,7 +6318,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -6330,7 +6338,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -6350,7 +6358,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -6370,7 +6378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -6380,7 +6388,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -6390,7 +6398,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -6400,7 +6408,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -6410,7 +6418,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -6420,7 +6428,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -6430,7 +6438,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -6440,7 +6448,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -6450,8 +6458,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -6471,7 +6479,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -6483,7 +6491,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -6503,7 +6511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -6523,7 +6531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -6543,7 +6551,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -6561,7 +6569,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -6579,7 +6587,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -6597,7 +6605,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -6617,7 +6625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -6627,7 +6635,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -6637,7 +6645,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -6647,7 +6655,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -6657,7 +6665,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -6667,7 +6675,7 @@
       <c r="E62" s="20"/>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -6677,7 +6685,7 @@
       <c r="E63" s="20"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -6687,7 +6695,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -6697,7 +6705,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -6707,7 +6715,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -6717,7 +6725,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -6727,7 +6735,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -6737,7 +6745,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -6747,7 +6755,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -6757,8 +6765,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -6778,7 +6786,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -6790,7 +6798,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -6810,7 +6818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -6830,7 +6838,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -6850,7 +6858,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -6868,7 +6876,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -6886,7 +6894,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -6904,7 +6912,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -6912,9 +6920,11 @@
         <v>223</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D81" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D81" s="20">
+        <v>30</v>
+      </c>
       <c r="E81" s="3" t="s">
         <v>10</v>
       </c>
@@ -6922,7 +6932,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -6940,57 +6950,65 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="20">
-        <v>200</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="D83" s="15"/>
+      <c r="E83" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>9</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D84" s="20">
-        <v>100</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>32</v>
+        <v>200</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="22"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="20">
+        <v>100</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -7000,7 +7018,7 @@
       <c r="E86" s="20"/>
       <c r="F86" s="22"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -7010,7 +7028,7 @@
       <c r="E87" s="20"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -7020,7 +7038,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -7030,7 +7048,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -7040,7 +7058,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -7050,7 +7068,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -7060,7 +7078,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -7070,7 +7088,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -7080,7 +7098,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -7110,17 +7128,17 @@
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7140,7 +7158,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -7152,7 +7170,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -7172,7 +7190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7192,7 +7210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7210,7 +7228,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -7230,7 +7248,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -7248,7 +7266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -7268,7 +7286,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -7288,7 +7306,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -7308,7 +7326,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -7328,7 +7346,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -7348,7 +7366,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -7368,7 +7386,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7408,7 +7426,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -7426,7 +7444,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -7446,7 +7464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7456,7 +7474,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7466,7 +7484,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7476,7 +7494,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -7486,7 +7504,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -7496,7 +7514,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -7506,8 +7524,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -7527,7 +7545,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -7539,7 +7557,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -7559,7 +7577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -7579,7 +7597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -7597,7 +7615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -7615,7 +7633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -7635,7 +7653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -7645,7 +7663,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -7655,7 +7673,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -7665,7 +7683,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -7675,7 +7693,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -7685,7 +7703,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -7695,7 +7713,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -7705,7 +7723,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -7715,7 +7733,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -7725,7 +7743,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -7735,7 +7753,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -7745,7 +7763,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -7755,7 +7773,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -7765,7 +7783,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -7775,7 +7793,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -7785,7 +7803,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -7795,8 +7813,8 @@
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -7816,7 +7834,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
@@ -7828,7 +7846,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>3</v>
       </c>
@@ -7848,7 +7866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -7868,7 +7886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -7886,7 +7904,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -7904,7 +7922,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -7924,7 +7942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -7934,7 +7952,7 @@
       <c r="E56" s="20"/>
       <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -7944,7 +7962,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -7954,7 +7972,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -7964,7 +7982,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -7974,7 +7992,7 @@
       <c r="E60" s="20"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -7984,7 +8002,7 @@
       <c r="E61" s="20"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -7994,7 +8012,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -8004,7 +8022,7 @@
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -8014,7 +8032,7 @@
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -8024,7 +8042,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -8034,7 +8052,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -8044,7 +8062,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -8054,7 +8072,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -8064,7 +8082,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -8074,7 +8092,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>20</v>
       </c>
@@ -8084,8 +8102,8 @@
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -8105,7 +8123,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>2</v>
       </c>
@@ -8117,7 +8135,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="37"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>3</v>
       </c>
@@ -8137,7 +8155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -8157,7 +8175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -8175,7 +8193,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -8193,7 +8211,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -8213,7 +8231,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -8231,7 +8249,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -8249,7 +8267,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7</v>
       </c>
@@ -8267,7 +8285,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -8287,7 +8305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>9</v>
       </c>
@@ -8297,7 +8315,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="22"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10</v>
       </c>
@@ -8307,7 +8325,7 @@
       <c r="E85" s="20"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>11</v>
       </c>
@@ -8317,7 +8335,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
@@ -8327,7 +8345,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
@@ -8337,7 +8355,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
@@ -8347,7 +8365,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>15</v>
       </c>
@@ -8357,7 +8375,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>16</v>
       </c>
@@ -8367,7 +8385,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>17</v>
       </c>
@@ -8377,7 +8395,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -8387,7 +8405,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>19</v>
       </c>
@@ -8397,7 +8415,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>20</v>
       </c>
@@ -8407,8 +8425,8 @@
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -8428,7 +8446,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>2</v>
       </c>
@@ -8440,7 +8458,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
@@ -8460,7 +8478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -8480,7 +8498,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -8498,7 +8516,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -8516,7 +8534,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -8536,7 +8554,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -8556,7 +8574,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -8576,7 +8594,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -8596,7 +8614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -8606,7 +8624,7 @@
       <c r="E107" s="20"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -8616,7 +8634,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -8626,7 +8644,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -8636,7 +8654,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -8646,7 +8664,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -8656,7 +8674,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>14</v>
       </c>
@@ -8666,7 +8684,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>15</v>
       </c>
@@ -8676,7 +8694,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>16</v>
       </c>
@@ -8686,7 +8704,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>17</v>
       </c>
@@ -8696,7 +8714,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>18</v>
       </c>
@@ -8706,7 +8724,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>19</v>
       </c>
@@ -8716,7 +8734,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>20</v>
       </c>
@@ -8747,17 +8765,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.640625" customWidth="1"/>
-    <col min="2" max="2" width="30.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" customWidth="1"/>
-    <col min="4" max="4" width="25.640625" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8773,7 +8791,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -8785,7 +8803,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -8805,7 +8823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8823,7 +8841,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8841,7 +8859,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -8859,7 +8877,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8877,7 +8895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -8895,7 +8913,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8913,7 +8931,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -8923,7 +8941,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8933,7 +8951,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -8943,7 +8961,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8953,7 +8971,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -8963,7 +8981,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -8973,7 +8991,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -8983,7 +9001,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -8993,7 +9011,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -9003,7 +9021,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -9013,7 +9031,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -9023,7 +9041,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -9033,7 +9051,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -9043,7 +9061,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -9053,8 +9071,8 @@
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -9070,7 +9088,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -9082,7 +9100,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -9102,7 +9120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -9120,7 +9138,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -9138,7 +9156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -9148,7 +9166,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -9158,7 +9176,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -9168,7 +9186,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -9178,7 +9196,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -9188,7 +9206,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -9198,7 +9216,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -9208,7 +9226,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -9218,7 +9236,7 @@
       <c r="E37" s="20"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -9228,7 +9246,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -9238,7 +9256,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>13</v>
       </c>
@@ -9248,7 +9266,7 @@
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>14</v>
       </c>
@@ -9258,7 +9276,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -9268,7 +9286,7 @@
       <c r="E42" s="15"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -9278,7 +9296,7 @@
       <c r="E43" s="15"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -9288,7 +9306,7 @@
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -9298,7 +9316,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>19</v>
       </c>
@@ -9308,7 +9326,7 @@
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>20</v>
       </c>
